--- a/data-raw/InitialSpParamsMED.xlsx
+++ b/data-raw/InitialSpParamsMED.xlsx
@@ -3542,7 +3542,7 @@
       <c r="DC2"/>
       <c r="DD2"/>
       <c r="DE2" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="DF2"/>
       <c r="DG2"/>
@@ -3784,7 +3784,7 @@
       <c r="DC3"/>
       <c r="DD3"/>
       <c r="DE3" t="n">
-        <v>0.833683333333333</v>
+        <v>0.95</v>
       </c>
       <c r="DF3"/>
       <c r="DG3"/>
@@ -4242,7 +4242,7 @@
       <c r="DC5"/>
       <c r="DD5"/>
       <c r="DE5" t="n">
-        <v>0.6315</v>
+        <v>0.95</v>
       </c>
       <c r="DF5"/>
       <c r="DG5"/>
@@ -4494,7 +4494,7 @@
       <c r="DC6"/>
       <c r="DD6"/>
       <c r="DE6" t="n">
-        <v>0.5405</v>
+        <v>0.831</v>
       </c>
       <c r="DF6"/>
       <c r="DG6"/>
@@ -4746,7 +4746,7 @@
       <c r="DC7"/>
       <c r="DD7"/>
       <c r="DE7" t="n">
-        <v>0.68225</v>
+        <v>0.95</v>
       </c>
       <c r="DF7"/>
       <c r="DG7"/>
@@ -4998,7 +4998,7 @@
       <c r="DC8"/>
       <c r="DD8"/>
       <c r="DE8" t="n">
-        <v>0.684</v>
+        <v>0.95</v>
       </c>
       <c r="DF8"/>
       <c r="DG8"/>
@@ -5250,7 +5250,7 @@
       <c r="DC9"/>
       <c r="DD9"/>
       <c r="DE9" t="n">
-        <v>0.81</v>
+        <v>0.95</v>
       </c>
       <c r="DF9"/>
       <c r="DG9"/>
@@ -5502,7 +5502,7 @@
       <c r="DC10"/>
       <c r="DD10"/>
       <c r="DE10" t="n">
-        <v>0.72775</v>
+        <v>0.95</v>
       </c>
       <c r="DF10"/>
       <c r="DG10"/>
@@ -5854,7 +5854,7 @@
       <c r="DC12"/>
       <c r="DD12"/>
       <c r="DE12" t="n">
-        <v>0.502</v>
+        <v>0.754</v>
       </c>
       <c r="DF12"/>
       <c r="DG12"/>
@@ -6072,7 +6072,7 @@
       <c r="DC13"/>
       <c r="DD13"/>
       <c r="DE13" t="n">
-        <v>0.54925</v>
+        <v>0.8485</v>
       </c>
       <c r="DF13"/>
       <c r="DG13"/>
@@ -6276,7 +6276,7 @@
       <c r="DC14"/>
       <c r="DD14"/>
       <c r="DE14" t="n">
-        <v>0.41275</v>
+        <v>0.5755</v>
       </c>
       <c r="DF14"/>
       <c r="DG14"/>
@@ -7332,7 +7332,7 @@
       <c r="DC20"/>
       <c r="DD20"/>
       <c r="DE20" t="n">
-        <v>0.59825</v>
+        <v>0.9465</v>
       </c>
       <c r="DF20"/>
       <c r="DG20"/>
@@ -7544,7 +7544,7 @@
       <c r="DC21"/>
       <c r="DD21"/>
       <c r="DE21" t="n">
-        <v>0.59825</v>
+        <v>0.9465</v>
       </c>
       <c r="DF21"/>
       <c r="DG21"/>
@@ -8724,7 +8724,7 @@
       <c r="DC27"/>
       <c r="DD27"/>
       <c r="DE27" t="n">
-        <v>0.41275</v>
+        <v>0.5755</v>
       </c>
       <c r="DF27"/>
       <c r="DG27"/>
@@ -8970,7 +8970,7 @@
       <c r="DC28"/>
       <c r="DD28"/>
       <c r="DE28" t="n">
-        <v>0.38496875</v>
+        <v>0.5199375</v>
       </c>
       <c r="DF28"/>
       <c r="DG28"/>
@@ -9360,7 +9360,7 @@
       <c r="DC30"/>
       <c r="DD30"/>
       <c r="DE30" t="n">
-        <v>0.78375</v>
+        <v>0.95</v>
       </c>
       <c r="DF30"/>
       <c r="DG30"/>
@@ -9742,7 +9742,7 @@
       <c r="DC32"/>
       <c r="DD32"/>
       <c r="DE32" t="n">
-        <v>0.348</v>
+        <v>0.446</v>
       </c>
       <c r="DF32"/>
       <c r="DG32"/>
@@ -9938,7 +9938,7 @@
       <c r="DC33"/>
       <c r="DD33"/>
       <c r="DE33" t="n">
-        <v>0.76975</v>
+        <v>0.95</v>
       </c>
       <c r="DF33"/>
       <c r="DG33"/>
@@ -10144,7 +10144,7 @@
       <c r="DC34"/>
       <c r="DD34"/>
       <c r="DE34" t="n">
-        <v>0.62625</v>
+        <v>0.95</v>
       </c>
       <c r="DF34"/>
       <c r="DG34"/>
@@ -10328,7 +10328,7 @@
       <c r="DC35"/>
       <c r="DD35"/>
       <c r="DE35" t="n">
-        <v>0.41975</v>
+        <v>0.5895</v>
       </c>
       <c r="DF35"/>
       <c r="DG35"/>
@@ -10526,7 +10526,7 @@
       <c r="DC36"/>
       <c r="DD36"/>
       <c r="DE36" t="n">
-        <v>0.544</v>
+        <v>0.838</v>
       </c>
       <c r="DF36"/>
       <c r="DG36"/>
@@ -10896,7 +10896,7 @@
       <c r="DC38"/>
       <c r="DD38"/>
       <c r="DE38" t="n">
-        <v>0.71725</v>
+        <v>0.95</v>
       </c>
       <c r="DF38"/>
       <c r="DG38"/>
@@ -11076,7 +11076,7 @@
       <c r="DC39"/>
       <c r="DD39"/>
       <c r="DE39" t="n">
-        <v>0.476625</v>
+        <v>0.70325</v>
       </c>
       <c r="DF39"/>
       <c r="DG39"/>
@@ -11432,7 +11432,7 @@
       <c r="DC41"/>
       <c r="DD41"/>
       <c r="DE41" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF41"/>
       <c r="DG41"/>
@@ -14128,7 +14128,7 @@
       <c r="DC54"/>
       <c r="DD54"/>
       <c r="DE54" t="n">
-        <v>0.6665</v>
+        <v>0.95</v>
       </c>
       <c r="DF54"/>
       <c r="DG54"/>
@@ -14308,7 +14308,7 @@
       <c r="DC55"/>
       <c r="DD55"/>
       <c r="DE55" t="n">
-        <v>0.6665</v>
+        <v>0.95</v>
       </c>
       <c r="DF55"/>
       <c r="DG55"/>
@@ -14884,7 +14884,7 @@
       <c r="DC58"/>
       <c r="DD58"/>
       <c r="DE58" t="n">
-        <v>0.41275</v>
+        <v>0.5755</v>
       </c>
       <c r="DF58"/>
       <c r="DG58"/>
@@ -15264,7 +15264,7 @@
       <c r="DC60"/>
       <c r="DD60"/>
       <c r="DE60" t="n">
-        <v>0.69275</v>
+        <v>0.95</v>
       </c>
       <c r="DF60"/>
       <c r="DG60"/>
@@ -15458,7 +15458,7 @@
       <c r="DC61"/>
       <c r="DD61"/>
       <c r="DE61" t="n">
-        <v>0.455041666666667</v>
+        <v>0.660083333333333</v>
       </c>
       <c r="DF61"/>
       <c r="DG61"/>
@@ -15648,7 +15648,7 @@
       <c r="DC62"/>
       <c r="DD62"/>
       <c r="DE62" t="n">
-        <v>0.4481875</v>
+        <v>0.646375</v>
       </c>
       <c r="DF62"/>
       <c r="DG62"/>
@@ -15838,7 +15838,7 @@
       <c r="DC63"/>
       <c r="DD63"/>
       <c r="DE63" t="n">
-        <v>0.478666666666667</v>
+        <v>0.707333333333333</v>
       </c>
       <c r="DF63"/>
       <c r="DG63"/>
@@ -16218,7 +16218,7 @@
       <c r="DC65"/>
       <c r="DD65"/>
       <c r="DE65" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF65"/>
       <c r="DG65"/>
@@ -16418,7 +16418,7 @@
       <c r="DC66"/>
       <c r="DD66"/>
       <c r="DE66" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF66"/>
       <c r="DG66"/>
@@ -16618,7 +16618,7 @@
       <c r="DC67"/>
       <c r="DD67"/>
       <c r="DE67" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF67"/>
       <c r="DG67"/>
@@ -16818,7 +16818,7 @@
       <c r="DC68"/>
       <c r="DD68"/>
       <c r="DE68" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF68"/>
       <c r="DG68"/>
@@ -17018,7 +17018,7 @@
       <c r="DC69"/>
       <c r="DD69"/>
       <c r="DE69" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF69"/>
       <c r="DG69"/>
@@ -17218,7 +17218,7 @@
       <c r="DC70"/>
       <c r="DD70"/>
       <c r="DE70" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF70"/>
       <c r="DG70"/>
@@ -17418,7 +17418,7 @@
       <c r="DC71"/>
       <c r="DD71"/>
       <c r="DE71" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF71"/>
       <c r="DG71"/>
@@ -17618,7 +17618,7 @@
       <c r="DC72"/>
       <c r="DD72"/>
       <c r="DE72" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF72"/>
       <c r="DG72"/>
@@ -17818,7 +17818,7 @@
       <c r="DC73"/>
       <c r="DD73"/>
       <c r="DE73" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF73"/>
       <c r="DG73"/>
@@ -18018,7 +18018,7 @@
       <c r="DC74"/>
       <c r="DD74"/>
       <c r="DE74" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF74"/>
       <c r="DG74"/>
@@ -18218,7 +18218,7 @@
       <c r="DC75"/>
       <c r="DD75"/>
       <c r="DE75" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF75"/>
       <c r="DG75"/>
@@ -18418,7 +18418,7 @@
       <c r="DC76"/>
       <c r="DD76"/>
       <c r="DE76" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF76"/>
       <c r="DG76"/>
@@ -18618,7 +18618,7 @@
       <c r="DC77"/>
       <c r="DD77"/>
       <c r="DE77" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF77"/>
       <c r="DG77"/>
@@ -18778,7 +18778,7 @@
       <c r="DC78"/>
       <c r="DD78"/>
       <c r="DE78" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF78"/>
       <c r="DG78"/>
@@ -18978,7 +18978,7 @@
       <c r="DC79"/>
       <c r="DD79"/>
       <c r="DE79" t="n">
-        <v>0.562958333333333</v>
+        <v>0.875916666666667</v>
       </c>
       <c r="DF79"/>
       <c r="DG79"/>
@@ -19332,7 +19332,7 @@
       <c r="DC81"/>
       <c r="DD81"/>
       <c r="DE81" t="n">
-        <v>0.41275</v>
+        <v>0.5755</v>
       </c>
       <c r="DF81"/>
       <c r="DG81"/>
@@ -20046,7 +20046,7 @@
       <c r="DC85"/>
       <c r="DD85"/>
       <c r="DE85" t="n">
-        <v>0.306291666666667</v>
+        <v>0.362583333333333</v>
       </c>
       <c r="DF85"/>
       <c r="DG85"/>
@@ -20252,7 +20252,7 @@
       <c r="DC86"/>
       <c r="DD86"/>
       <c r="DE86" t="n">
-        <v>0.306291666666667</v>
+        <v>0.362583333333333</v>
       </c>
       <c r="DF86"/>
       <c r="DG86"/>
@@ -20458,7 +20458,7 @@
       <c r="DC87"/>
       <c r="DD87"/>
       <c r="DE87" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF87"/>
       <c r="DG87"/>
@@ -20664,7 +20664,7 @@
       <c r="DC88"/>
       <c r="DD88"/>
       <c r="DE88" t="n">
-        <v>0.41275</v>
+        <v>0.5755</v>
       </c>
       <c r="DF88"/>
       <c r="DG88"/>
@@ -20870,7 +20870,7 @@
       <c r="DC89"/>
       <c r="DD89"/>
       <c r="DE89" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF89"/>
       <c r="DG89"/>
@@ -21076,7 +21076,7 @@
       <c r="DC90"/>
       <c r="DD90"/>
       <c r="DE90" t="n">
-        <v>0.306291666666667</v>
+        <v>0.362583333333333</v>
       </c>
       <c r="DF90"/>
       <c r="DG90"/>
@@ -21286,7 +21286,7 @@
       <c r="DC91"/>
       <c r="DD91"/>
       <c r="DE91" t="n">
-        <v>0.306291666666667</v>
+        <v>0.362583333333333</v>
       </c>
       <c r="DF91"/>
       <c r="DG91"/>
@@ -21492,7 +21492,7 @@
       <c r="DC92"/>
       <c r="DD92"/>
       <c r="DE92" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF92"/>
       <c r="DG92"/>
@@ -21698,7 +21698,7 @@
       <c r="DC93"/>
       <c r="DD93"/>
       <c r="DE93" t="n">
-        <v>0.306291666666667</v>
+        <v>0.362583333333333</v>
       </c>
       <c r="DF93"/>
       <c r="DG93"/>
@@ -21904,7 +21904,7 @@
       <c r="DC94"/>
       <c r="DD94"/>
       <c r="DE94" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF94"/>
       <c r="DG94"/>
@@ -22496,7 +22496,7 @@
       <c r="DC97"/>
       <c r="DD97"/>
       <c r="DE97" t="n">
-        <v>0.6035</v>
+        <v>0.95</v>
       </c>
       <c r="DF97"/>
       <c r="DG97"/>
@@ -22940,7 +22940,7 @@
       <c r="DC99"/>
       <c r="DD99"/>
       <c r="DE99" t="n">
-        <v>0.873</v>
+        <v>0.95</v>
       </c>
       <c r="DF99"/>
       <c r="DG99"/>
@@ -23324,7 +23324,7 @@
       <c r="DC101"/>
       <c r="DD101"/>
       <c r="DE101" t="n">
-        <v>0.5405</v>
+        <v>0.831</v>
       </c>
       <c r="DF101"/>
       <c r="DG101"/>
@@ -23548,7 +23548,7 @@
       <c r="DC102"/>
       <c r="DD102"/>
       <c r="DE102" t="n">
-        <v>0.55275</v>
+        <v>0.8555</v>
       </c>
       <c r="DF102"/>
       <c r="DG102"/>
@@ -23742,7 +23742,7 @@
       <c r="DC103"/>
       <c r="DD103"/>
       <c r="DE103" t="n">
-        <v>0.3326875</v>
+        <v>0.415375</v>
       </c>
       <c r="DF103"/>
       <c r="DG103"/>
@@ -24062,7 +24062,7 @@
       <c r="DC105"/>
       <c r="DD105"/>
       <c r="DE105" t="n">
-        <v>0.35675</v>
+        <v>0.4635</v>
       </c>
       <c r="DF105"/>
       <c r="DG105"/>
@@ -24972,7 +24972,7 @@
       <c r="DC110"/>
       <c r="DD110"/>
       <c r="DE110" t="n">
-        <v>0.303375</v>
+        <v>0.35675</v>
       </c>
       <c r="DF110"/>
       <c r="DG110"/>
@@ -25586,7 +25586,7 @@
       <c r="DC113"/>
       <c r="DD113"/>
       <c r="DE113" t="n">
-        <v>0.691</v>
+        <v>0.95</v>
       </c>
       <c r="DF113"/>
       <c r="DG113"/>
@@ -25968,7 +25968,7 @@
       <c r="DC115"/>
       <c r="DD115"/>
       <c r="DE115" t="n">
-        <v>0.4313</v>
+        <v>0.6126</v>
       </c>
       <c r="DF115"/>
       <c r="DG115"/>
@@ -26182,7 +26182,7 @@
       <c r="DC116"/>
       <c r="DD116"/>
       <c r="DE116" t="n">
-        <v>0.360727272727273</v>
+        <v>0.471454545454545</v>
       </c>
       <c r="DF116"/>
       <c r="DG116"/>
@@ -26418,7 +26418,7 @@
       <c r="DC117"/>
       <c r="DD117"/>
       <c r="DE117" t="n">
-        <v>0.329625</v>
+        <v>0.40925</v>
       </c>
       <c r="DF117"/>
       <c r="DG117"/>
@@ -26654,7 +26654,7 @@
       <c r="DC118"/>
       <c r="DD118"/>
       <c r="DE118" t="n">
-        <v>0.360727272727273</v>
+        <v>0.471454545454545</v>
       </c>
       <c r="DF118"/>
       <c r="DG118"/>
@@ -26882,7 +26882,7 @@
       <c r="DC119"/>
       <c r="DD119"/>
       <c r="DE119" t="n">
-        <v>0.360727272727273</v>
+        <v>0.471454545454545</v>
       </c>
       <c r="DF119"/>
       <c r="DG119"/>
@@ -27104,7 +27104,7 @@
       <c r="DC120"/>
       <c r="DD120"/>
       <c r="DE120" t="n">
-        <v>0.360727272727273</v>
+        <v>0.471454545454545</v>
       </c>
       <c r="DF120"/>
       <c r="DG120"/>
@@ -27472,7 +27472,7 @@
       <c r="DC122"/>
       <c r="DD122"/>
       <c r="DE122" t="n">
-        <v>0.304638888888889</v>
+        <v>0.359277777777778</v>
       </c>
       <c r="DF122"/>
       <c r="DG122"/>
@@ -28254,7 +28254,7 @@
       <c r="DC126"/>
       <c r="DD126"/>
       <c r="DE126" t="n">
-        <v>0.47575</v>
+        <v>0.7015</v>
       </c>
       <c r="DF126"/>
       <c r="DG126"/>
@@ -28640,7 +28640,7 @@
       <c r="DC128"/>
       <c r="DD128"/>
       <c r="DE128" t="n">
-        <v>0.698875</v>
+        <v>0.95</v>
       </c>
       <c r="DF128"/>
       <c r="DG128"/>
@@ -28822,7 +28822,7 @@
       <c r="DC129"/>
       <c r="DD129"/>
       <c r="DE129" t="n">
-        <v>0.481</v>
+        <v>0.712</v>
       </c>
       <c r="DF129"/>
       <c r="DG129"/>
@@ -29388,7 +29388,7 @@
       <c r="DC132"/>
       <c r="DD132"/>
       <c r="DE132" t="n">
-        <v>0.436083333333333</v>
+        <v>0.622166666666667</v>
       </c>
       <c r="DF132"/>
       <c r="DG132"/>
@@ -29572,7 +29572,7 @@
       <c r="DC133"/>
       <c r="DD133"/>
       <c r="DE133" t="n">
-        <v>0.39875</v>
+        <v>0.5475</v>
       </c>
       <c r="DF133"/>
       <c r="DG133"/>
@@ -31284,7 +31284,7 @@
       <c r="DC142"/>
       <c r="DD142"/>
       <c r="DE142" t="n">
-        <v>0.775</v>
+        <v>0.95</v>
       </c>
       <c r="DF142"/>
       <c r="DG142"/>
@@ -32440,7 +32440,7 @@
       <c r="DC148"/>
       <c r="DD148"/>
       <c r="DE148" t="n">
-        <v>0.85375</v>
+        <v>0.95</v>
       </c>
       <c r="DF148"/>
       <c r="DG148"/>
@@ -32674,7 +32674,7 @@
       <c r="DC149"/>
       <c r="DD149"/>
       <c r="DE149" t="n">
-        <v>0.390488372093023</v>
+        <v>0.530976744186046</v>
       </c>
       <c r="DF149"/>
       <c r="DG149"/>
@@ -32916,7 +32916,7 @@
       <c r="DC150"/>
       <c r="DD150"/>
       <c r="DE150" t="n">
-        <v>0.31125</v>
+        <v>0.3725</v>
       </c>
       <c r="DF150"/>
       <c r="DG150"/>
@@ -33170,7 +33170,7 @@
       <c r="DC151"/>
       <c r="DD151"/>
       <c r="DE151" t="n">
-        <v>0.4425</v>
+        <v>0.635</v>
       </c>
       <c r="DF151"/>
       <c r="DG151"/>
@@ -33412,7 +33412,7 @@
       <c r="DC152"/>
       <c r="DD152"/>
       <c r="DE152" t="n">
-        <v>0.390488372093023</v>
+        <v>0.530976744186046</v>
       </c>
       <c r="DF152"/>
       <c r="DG152"/>
@@ -33654,7 +33654,7 @@
       <c r="DC153"/>
       <c r="DD153"/>
       <c r="DE153" t="n">
-        <v>0.390488372093023</v>
+        <v>0.530976744186046</v>
       </c>
       <c r="DF153"/>
       <c r="DG153"/>
@@ -33896,7 +33896,7 @@
       <c r="DC154"/>
       <c r="DD154"/>
       <c r="DE154" t="n">
-        <v>0.59475</v>
+        <v>0.9395</v>
       </c>
       <c r="DF154"/>
       <c r="DG154"/>
@@ -34150,7 +34150,7 @@
       <c r="DC155"/>
       <c r="DD155"/>
       <c r="DE155" t="n">
-        <v>0.36725</v>
+        <v>0.4845</v>
       </c>
       <c r="DF155"/>
       <c r="DG155"/>
@@ -34392,7 +34392,7 @@
       <c r="DC156"/>
       <c r="DD156"/>
       <c r="DE156" t="n">
-        <v>0.285</v>
+        <v>0.32</v>
       </c>
       <c r="DF156"/>
       <c r="DG156"/>
@@ -34596,7 +34596,7 @@
       <c r="DC157"/>
       <c r="DD157"/>
       <c r="DE157" t="n">
-        <v>0.2955</v>
+        <v>0.341</v>
       </c>
       <c r="DF157"/>
       <c r="DG157"/>
@@ -34810,7 +34810,7 @@
       <c r="DC158"/>
       <c r="DD158"/>
       <c r="DE158" t="n">
-        <v>0.2955</v>
+        <v>0.341</v>
       </c>
       <c r="DF158"/>
       <c r="DG158"/>
@@ -35028,7 +35028,7 @@
       <c r="DC159"/>
       <c r="DD159"/>
       <c r="DE159" t="n">
-        <v>0.2955</v>
+        <v>0.341</v>
       </c>
       <c r="DF159"/>
       <c r="DG159"/>
@@ -35224,7 +35224,7 @@
       <c r="DC160"/>
       <c r="DD160"/>
       <c r="DE160" t="n">
-        <v>0.591833333333333</v>
+        <v>0.933666666666667</v>
       </c>
       <c r="DF160"/>
       <c r="DG160"/>
@@ -35604,7 +35604,7 @@
       <c r="DC162"/>
       <c r="DD162"/>
       <c r="DE162" t="n">
-        <v>0.356235294117647</v>
+        <v>0.462470588235294</v>
       </c>
       <c r="DF162"/>
       <c r="DG162"/>
@@ -35842,7 +35842,7 @@
       <c r="DC163"/>
       <c r="DD163"/>
       <c r="DE163" t="n">
-        <v>0.471224137931034</v>
+        <v>0.692448275862069</v>
       </c>
       <c r="DF163"/>
       <c r="DG163"/>
@@ -36044,7 +36044,7 @@
       <c r="DC164"/>
       <c r="DD164"/>
       <c r="DE164" t="n">
-        <v>0.5615</v>
+        <v>0.873</v>
       </c>
       <c r="DF164"/>
       <c r="DG164"/>
@@ -36228,7 +36228,7 @@
       <c r="DC165"/>
       <c r="DD165"/>
       <c r="DE165" t="n">
-        <v>0.4628</v>
+        <v>0.6756</v>
       </c>
       <c r="DF165"/>
       <c r="DG165"/>
@@ -36494,7 +36494,7 @@
       <c r="DC166"/>
       <c r="DD166"/>
       <c r="DE166" t="n">
-        <v>0.515201754385965</v>
+        <v>0.78040350877193</v>
       </c>
       <c r="DF166"/>
       <c r="DG166"/>
@@ -36746,7 +36746,7 @@
       <c r="DC167"/>
       <c r="DD167"/>
       <c r="DE167" t="n">
-        <v>0.515201754385965</v>
+        <v>0.78040350877193</v>
       </c>
       <c r="DF167"/>
       <c r="DG167"/>
@@ -37012,7 +37012,7 @@
       <c r="DC168"/>
       <c r="DD168"/>
       <c r="DE168" t="n">
-        <v>0.515201754385965</v>
+        <v>0.78040350877193</v>
       </c>
       <c r="DF168"/>
       <c r="DG168"/>
@@ -37264,7 +37264,7 @@
       <c r="DC169"/>
       <c r="DD169"/>
       <c r="DE169" t="n">
-        <v>0.515201754385965</v>
+        <v>0.78040350877193</v>
       </c>
       <c r="DF169"/>
       <c r="DG169"/>
@@ -37542,7 +37542,7 @@
       <c r="DC170"/>
       <c r="DD170"/>
       <c r="DE170" t="n">
-        <v>0.6035</v>
+        <v>0.95</v>
       </c>
       <c r="DF170"/>
       <c r="DG170"/>
@@ -37808,7 +37808,7 @@
       <c r="DC171"/>
       <c r="DD171"/>
       <c r="DE171" t="n">
-        <v>0.515201754385965</v>
+        <v>0.78040350877193</v>
       </c>
       <c r="DF171"/>
       <c r="DG171"/>
@@ -38074,7 +38074,7 @@
       <c r="DC172"/>
       <c r="DD172"/>
       <c r="DE172" t="n">
-        <v>0.55275</v>
+        <v>0.8555</v>
       </c>
       <c r="DF172"/>
       <c r="DG172"/>
@@ -38340,7 +38340,7 @@
       <c r="DC173"/>
       <c r="DD173"/>
       <c r="DE173" t="n">
-        <v>0.47925</v>
+        <v>0.7085</v>
       </c>
       <c r="DF173"/>
       <c r="DG173"/>
@@ -38606,7 +38606,7 @@
       <c r="DC174"/>
       <c r="DD174"/>
       <c r="DE174" t="n">
-        <v>0.515201754385965</v>
+        <v>0.78040350877193</v>
       </c>
       <c r="DF174"/>
       <c r="DG174"/>
@@ -38886,7 +38886,7 @@
       <c r="DC175"/>
       <c r="DD175"/>
       <c r="DE175" t="n">
-        <v>0.50375</v>
+        <v>0.7575</v>
       </c>
       <c r="DF175"/>
       <c r="DG175"/>
@@ -39152,7 +39152,7 @@
       <c r="DC176"/>
       <c r="DD176"/>
       <c r="DE176" t="n">
-        <v>0.55625</v>
+        <v>0.8625</v>
       </c>
       <c r="DF176"/>
       <c r="DG176"/>
@@ -39418,7 +39418,7 @@
       <c r="DC177"/>
       <c r="DD177"/>
       <c r="DE177" t="n">
-        <v>0.515201754385965</v>
+        <v>0.78040350877193</v>
       </c>
       <c r="DF177"/>
       <c r="DG177"/>
@@ -39820,7 +39820,7 @@
       <c r="DC179"/>
       <c r="DD179"/>
       <c r="DE179" t="n">
-        <v>0.41275</v>
+        <v>0.5755</v>
       </c>
       <c r="DF179"/>
       <c r="DG179"/>
@@ -40032,7 +40032,7 @@
       <c r="DC180"/>
       <c r="DD180"/>
       <c r="DE180" t="n">
-        <v>0.6075</v>
+        <v>0.95</v>
       </c>
       <c r="DF180"/>
       <c r="DG180"/>
@@ -40224,7 +40224,7 @@
       <c r="DC181"/>
       <c r="DD181"/>
       <c r="DE181" t="n">
-        <v>0.357333333333333</v>
+        <v>0.464666666666667</v>
       </c>
       <c r="DF181"/>
       <c r="DG181"/>
@@ -40426,7 +40426,7 @@
       <c r="DC182"/>
       <c r="DD182"/>
       <c r="DE182" t="n">
-        <v>0.6924</v>
+        <v>0.95</v>
       </c>
       <c r="DF182"/>
       <c r="DG182"/>
@@ -40628,7 +40628,7 @@
       <c r="DC183"/>
       <c r="DD183"/>
       <c r="DE183" t="n">
-        <v>0.332833333333333</v>
+        <v>0.415666666666667</v>
       </c>
       <c r="DF183"/>
       <c r="DG183"/>
@@ -40836,7 +40836,7 @@
       <c r="DC184"/>
       <c r="DD184"/>
       <c r="DE184" t="n">
-        <v>0.359529411764706</v>
+        <v>0.469058823529412</v>
       </c>
       <c r="DF184"/>
       <c r="DG184"/>
@@ -41046,7 +41046,7 @@
       <c r="DC185"/>
       <c r="DD185"/>
       <c r="DE185" t="n">
-        <v>0.48475</v>
+        <v>0.7195</v>
       </c>
       <c r="DF185"/>
       <c r="DG185"/>
@@ -41656,7 +41656,7 @@
       <c r="DC188"/>
       <c r="DD188"/>
       <c r="DE188" t="n">
-        <v>0.356973404255319</v>
+        <v>0.463946808510638</v>
       </c>
       <c r="DF188"/>
       <c r="DG188"/>
@@ -42258,7 +42258,7 @@
       <c r="DC191"/>
       <c r="DD191"/>
       <c r="DE191" t="n">
-        <v>0.4537</v>
+        <v>0.6574</v>
       </c>
       <c r="DF191"/>
       <c r="DG191"/>
@@ -42944,7 +42944,7 @@
       <c r="DC195"/>
       <c r="DD195"/>
       <c r="DE195" t="n">
-        <v>0.425</v>
+        <v>0.6</v>
       </c>
       <c r="DF195"/>
       <c r="DG195"/>
@@ -43294,7 +43294,7 @@
       <c r="DC197"/>
       <c r="DD197"/>
       <c r="DE197" t="n">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="DF197"/>
       <c r="DG197"/>
@@ -43494,7 +43494,7 @@
       <c r="DC198"/>
       <c r="DD198"/>
       <c r="DE198" t="n">
-        <v>0.500359375</v>
+        <v>0.75071875</v>
       </c>
       <c r="DF198"/>
       <c r="DG198"/>
@@ -43854,7 +43854,7 @@
       <c r="DC200"/>
       <c r="DD200"/>
       <c r="DE200" t="n">
-        <v>0.41275</v>
+        <v>0.5755</v>
       </c>
       <c r="DF200"/>
       <c r="DG200"/>
@@ -44036,7 +44036,7 @@
       <c r="DC201"/>
       <c r="DD201"/>
       <c r="DE201" t="n">
-        <v>0.31125</v>
+        <v>0.3725</v>
       </c>
       <c r="DF201"/>
       <c r="DG201"/>
@@ -44224,7 +44224,7 @@
       <c r="DC202"/>
       <c r="DD202"/>
       <c r="DE202" t="n">
-        <v>0.85025</v>
+        <v>0.95</v>
       </c>
       <c r="DF202"/>
       <c r="DG202"/>
@@ -44964,7 +44964,7 @@
       <c r="DC206"/>
       <c r="DD206"/>
       <c r="DE206" t="n">
-        <v>0.79075</v>
+        <v>0.95</v>
       </c>
       <c r="DF206"/>
       <c r="DG206"/>
@@ -45346,7 +45346,7 @@
       <c r="DC208"/>
       <c r="DD208"/>
       <c r="DE208" t="n">
-        <v>0.348</v>
+        <v>0.446</v>
       </c>
       <c r="DF208"/>
       <c r="DG208"/>
@@ -45548,7 +45548,7 @@
       <c r="DC209"/>
       <c r="DD209"/>
       <c r="DE209" t="n">
-        <v>0.713925</v>
+        <v>0.95</v>
       </c>
       <c r="DF209"/>
       <c r="DG209"/>
@@ -45742,7 +45742,7 @@
       <c r="DC210"/>
       <c r="DD210"/>
       <c r="DE210" t="n">
-        <v>0.370166666666667</v>
+        <v>0.490333333333333</v>
       </c>
       <c r="DF210"/>
       <c r="DG210"/>
@@ -45936,7 +45936,7 @@
       <c r="DC211"/>
       <c r="DD211"/>
       <c r="DE211" t="n">
-        <v>0.618375</v>
+        <v>0.95</v>
       </c>
       <c r="DF211"/>
       <c r="DG211"/>
@@ -46142,7 +46142,7 @@
       <c r="DC212"/>
       <c r="DD212"/>
       <c r="DE212" t="n">
-        <v>0.451444444444444</v>
+        <v>0.652888888888889</v>
       </c>
       <c r="DF212"/>
       <c r="DG212"/>
@@ -46526,7 +46526,7 @@
       <c r="DC214"/>
       <c r="DD214"/>
       <c r="DE214" t="n">
-        <v>0.597666666666667</v>
+        <v>0.945333333333333</v>
       </c>
       <c r="DF214"/>
       <c r="DG214"/>

--- a/data-raw/InitialSpParamsMED.xlsx
+++ b/data-raw/InitialSpParamsMED.xlsx
@@ -250,7 +250,7 @@
     <t xml:space="preserve">Psi_Extract</t>
   </si>
   <si>
-    <t xml:space="preserve">Psi_Critic</t>
+    <t xml:space="preserve">Exp_Extract</t>
   </si>
   <si>
     <t xml:space="preserve">WUE</t>
@@ -2585,6 +2585,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3D3D3D"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -2668,7 +2685,7 @@
     <tableColumn id="74" name="Tmax_LAI"/>
     <tableColumn id="75" name="Tmax_LAIsq"/>
     <tableColumn id="76" name="Psi_Extract"/>
-    <tableColumn id="77" name="Psi_Critic"/>
+    <tableColumn id="77" name="Exp_Extract"/>
     <tableColumn id="78" name="WUE"/>
     <tableColumn id="79" name="WUE_par"/>
     <tableColumn id="80" name="WUE_co2"/>
@@ -2727,11 +2744,11 @@
   </sheetPr>
   <dimension ref="A1:DT218"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CC2" activeCellId="0" sqref="CC2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BG202" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BW227" activeCellId="0" sqref="BW227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3252,9 +3269,7 @@
       <c r="BX2" s="1" t="n">
         <v>-1.10504507344589</v>
       </c>
-      <c r="BY2" s="1" t="n">
-        <v>-3.74711270489309</v>
-      </c>
+      <c r="BY2" s="1"/>
       <c r="CD2" s="1" t="n">
         <v>0.00391201428571428</v>
       </c>
@@ -3431,9 +3446,7 @@
       <c r="BX3" s="1" t="n">
         <v>-1.32605408813507</v>
       </c>
-      <c r="BY3" s="1" t="n">
-        <v>-4.15016666669445</v>
-      </c>
+      <c r="BY3" s="1"/>
       <c r="CD3" s="1" t="n">
         <v>0.00391201428571428</v>
       </c>
@@ -3565,9 +3578,7 @@
       <c r="BX4" s="1" t="n">
         <v>-2.60913420119169</v>
       </c>
-      <c r="BY4" s="1" t="n">
-        <v>-2.60913420119169</v>
-      </c>
+      <c r="BY4" s="1"/>
       <c r="CD4" s="1" t="n">
         <v>0.00425</v>
       </c>
@@ -3744,9 +3755,7 @@
       <c r="BX5" s="1" t="n">
         <v>-1.16643646641511</v>
       </c>
-      <c r="BY5" s="1" t="n">
-        <v>-3.21371428571429</v>
-      </c>
+      <c r="BY5" s="1"/>
       <c r="CD5" s="1" t="n">
         <v>0.002296</v>
       </c>
@@ -3938,9 +3947,7 @@
       <c r="BX6" s="1" t="n">
         <v>-1.99522027149953</v>
       </c>
-      <c r="BY6" s="1" t="n">
-        <v>-3.89128801188147</v>
-      </c>
+      <c r="BY6" s="1"/>
       <c r="CD6" s="1" t="n">
         <v>0.0037504233147</v>
       </c>
@@ -4132,9 +4139,7 @@
       <c r="BX7" s="1" t="n">
         <v>-1.1727275438286</v>
       </c>
-      <c r="BY7" s="1" t="n">
-        <v>-1.57901583998003</v>
-      </c>
+      <c r="BY7" s="1"/>
       <c r="CD7" s="1" t="n">
         <v>0.0037504233147</v>
       </c>
@@ -4326,9 +4331,7 @@
       <c r="BX8" s="1" t="n">
         <v>-1.1727275438286</v>
       </c>
-      <c r="BY8" s="1" t="n">
-        <v>-3.14535714285714</v>
-      </c>
+      <c r="BY8" s="1"/>
       <c r="CD8" s="1" t="n">
         <v>0.0037504233147</v>
       </c>
@@ -4520,9 +4523,7 @@
       <c r="BX9" s="1" t="n">
         <v>-0.982262287507461</v>
       </c>
-      <c r="BY9" s="1" t="n">
-        <v>-2.7252214594257</v>
-      </c>
+      <c r="BY9" s="1"/>
       <c r="CD9" s="1" t="n">
         <v>0.0037504233147</v>
       </c>
@@ -4714,9 +4715,7 @@
       <c r="BX10" s="1" t="n">
         <v>-0.811202046834753</v>
       </c>
-      <c r="BY10" s="1" t="n">
-        <v>-2.09971998540974</v>
-      </c>
+      <c r="BY10" s="1"/>
       <c r="CD10" s="1" t="n">
         <v>0.003157</v>
       </c>
@@ -5032,9 +5031,7 @@
       <c r="BX13" s="1" t="n">
         <v>-0.994540566101305</v>
       </c>
-      <c r="BY13" s="1" t="n">
-        <v>-1.88055938140551</v>
-      </c>
+      <c r="BY13" s="1"/>
       <c r="CI13" s="1" t="n">
         <v>4.153866</v>
       </c>
@@ -5172,9 +5169,7 @@
       <c r="BH14" s="1" t="n">
         <v>81.75</v>
       </c>
-      <c r="BY14" s="1" t="n">
-        <v>-6.87277777772222</v>
-      </c>
+      <c r="BY14" s="1"/>
       <c r="CI14" s="1" t="n">
         <v>5.05159666666666</v>
       </c>
@@ -5409,9 +5404,7 @@
       <c r="BH17" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="BY17" s="1" t="n">
-        <v>-1.79</v>
-      </c>
+      <c r="BY17" s="1"/>
       <c r="CI17" s="1" t="n">
         <v>0.0722</v>
       </c>
@@ -5634,9 +5627,7 @@
       <c r="BX20" s="1" t="n">
         <v>-1.12525307363159</v>
       </c>
-      <c r="BY20" s="1" t="n">
-        <v>-3.34109680510477</v>
-      </c>
+      <c r="BY20" s="1"/>
       <c r="CE20" s="1" t="n">
         <v>0.172333333333333</v>
       </c>
@@ -5768,9 +5759,7 @@
       <c r="BX21" s="1" t="n">
         <v>-1.12525307363159</v>
       </c>
-      <c r="BY21" s="1" t="n">
-        <v>-3.34109680510477</v>
-      </c>
+      <c r="BY21" s="1"/>
       <c r="CE21" s="1" t="n">
         <v>0.172333333333333</v>
       </c>
@@ -5899,9 +5888,7 @@
       <c r="BI22" s="1" t="n">
         <v>-2.74</v>
       </c>
-      <c r="BY22" s="1" t="n">
-        <v>-4.51881219855317</v>
-      </c>
+      <c r="BY22" s="1"/>
       <c r="CD22" s="1" t="n">
         <v>0.000582010582</v>
       </c>
@@ -6027,9 +6014,7 @@
       <c r="BX23" s="1" t="n">
         <v>-1.54706310282425</v>
       </c>
-      <c r="BY23" s="1" t="n">
-        <v>-3.42759898128712</v>
-      </c>
+      <c r="BY23" s="1"/>
       <c r="CE23" s="1" t="n">
         <v>0.135</v>
       </c>
@@ -6342,9 +6327,7 @@
       <c r="BH26" s="1" t="n">
         <v>69.75</v>
       </c>
-      <c r="BY26" s="1" t="n">
-        <v>-2.27338854788727</v>
-      </c>
+      <c r="BY26" s="1"/>
       <c r="CE26" s="1" t="n">
         <v>0.075</v>
       </c>
@@ -6449,9 +6432,7 @@
       <c r="BX27" s="1" t="n">
         <v>-2.21009014689179</v>
       </c>
-      <c r="BY27" s="1" t="n">
-        <v>-4.5</v>
-      </c>
+      <c r="BY27" s="1"/>
       <c r="CD27" s="1" t="n">
         <v>0.00165</v>
       </c>
@@ -6610,9 +6591,7 @@
       <c r="BX28" s="1" t="n">
         <v>-0.917801324889784</v>
       </c>
-      <c r="BY28" s="1" t="n">
-        <v>-1.74006664494041</v>
-      </c>
+      <c r="BY28" s="1"/>
       <c r="CD28" s="1" t="n">
         <v>0.0030946117895</v>
       </c>
@@ -6854,9 +6833,7 @@
       <c r="BP30" s="1" t="n">
         <v>21434.632</v>
       </c>
-      <c r="BY30" s="1" t="n">
-        <v>-8</v>
-      </c>
+      <c r="BY30" s="1"/>
       <c r="CJ30" s="1" t="n">
         <v>3.50673751293558</v>
       </c>
@@ -7154,9 +7131,7 @@
       <c r="BX33" s="1" t="n">
         <v>-1.43041945618274</v>
       </c>
-      <c r="BY33" s="1" t="n">
-        <v>-3.74985</v>
-      </c>
+      <c r="BY33" s="1"/>
       <c r="CE33" s="1" t="n">
         <v>0.255</v>
       </c>
@@ -7288,9 +7263,7 @@
       <c r="BP34" s="1" t="n">
         <v>19800</v>
       </c>
-      <c r="BY34" s="1" t="n">
-        <v>-1.55700031472369</v>
-      </c>
+      <c r="BY34" s="1"/>
       <c r="CO34" s="1" t="n">
         <v>37.041573578</v>
       </c>
@@ -7380,9 +7353,7 @@
       <c r="BX35" s="1" t="n">
         <v>-1.82127799142008</v>
       </c>
-      <c r="BY35" s="1" t="n">
-        <v>-6.70492878330317</v>
-      </c>
+      <c r="BY35" s="1"/>
       <c r="CD35" s="1" t="n">
         <v>0.0023988</v>
       </c>
@@ -7490,9 +7461,7 @@
       <c r="BX36" s="1" t="n">
         <v>-1.23396699868125</v>
       </c>
-      <c r="BY36" s="1" t="n">
-        <v>-1.23396699868125</v>
-      </c>
+      <c r="BY36" s="1"/>
       <c r="CI36" s="1" t="n">
         <v>4.425</v>
       </c>
@@ -7606,9 +7575,7 @@
       <c r="BX37" s="1" t="n">
         <v>-1.13642289651905</v>
       </c>
-      <c r="BY37" s="1" t="n">
-        <v>-7.08023809522619</v>
-      </c>
+      <c r="BY37" s="1"/>
       <c r="CJ37" s="1" t="n">
         <v>14.0584364923888</v>
       </c>
@@ -7686,9 +7653,7 @@
       <c r="AY38" s="1" t="n">
         <v>0.9443</v>
       </c>
-      <c r="BY38" s="1" t="n">
-        <v>-5.98868632477778</v>
-      </c>
+      <c r="BY38" s="1"/>
       <c r="CI38" s="1" t="n">
         <v>0.258515333333333</v>
       </c>
@@ -8063,9 +8028,7 @@
       <c r="BX42" s="1" t="n">
         <v>-1.20838725161074</v>
       </c>
-      <c r="BY42" s="1" t="n">
-        <v>-5.15853339938455</v>
-      </c>
+      <c r="BY42" s="1"/>
       <c r="CI42" s="1" t="n">
         <v>0.1759298855</v>
       </c>
@@ -8194,9 +8157,7 @@
       <c r="BX43" s="1" t="n">
         <v>-1.20838725161074</v>
       </c>
-      <c r="BY43" s="1" t="n">
-        <v>-5.47222402898248</v>
-      </c>
+      <c r="BY43" s="1"/>
       <c r="CI43" s="1" t="n">
         <v>0.395848171944444</v>
       </c>
@@ -8325,9 +8286,7 @@
       <c r="BX44" s="1" t="n">
         <v>-1.20838725161074</v>
       </c>
-      <c r="BY44" s="1" t="n">
-        <v>-5.16387373120537</v>
-      </c>
+      <c r="BY44" s="1"/>
       <c r="CI44" s="1" t="n">
         <v>0.395848171944444</v>
       </c>
@@ -8456,9 +8415,7 @@
       <c r="BX45" s="1" t="n">
         <v>-1.20838725161074</v>
       </c>
-      <c r="BY45" s="1" t="n">
-        <v>-5.47222402898248</v>
-      </c>
+      <c r="BY45" s="1"/>
       <c r="CI45" s="1" t="n">
         <v>0.395848171944444</v>
       </c>
@@ -8587,9 +8544,7 @@
       <c r="BX46" s="1" t="n">
         <v>-1.20838725161074</v>
       </c>
-      <c r="BY46" s="1" t="n">
-        <v>-6.2</v>
-      </c>
+      <c r="BY46" s="1"/>
       <c r="CI46" s="1" t="n">
         <v>0.501333333333333</v>
       </c>
@@ -8718,9 +8673,7 @@
       <c r="BX47" s="1" t="n">
         <v>-1.20838725161074</v>
       </c>
-      <c r="BY47" s="1" t="n">
-        <v>-3.13910638379289</v>
-      </c>
+      <c r="BY47" s="1"/>
       <c r="CI47" s="1" t="n">
         <v>0.510281297</v>
       </c>
@@ -8849,9 +8802,7 @@
       <c r="BX48" s="1" t="n">
         <v>-1.20838725161074</v>
       </c>
-      <c r="BY48" s="1" t="n">
-        <v>-5.47222402898248</v>
-      </c>
+      <c r="BY48" s="1"/>
       <c r="CI48" s="1" t="n">
         <v>0.395848171944444</v>
       </c>
@@ -8980,9 +8931,7 @@
       <c r="BX49" s="1" t="n">
         <v>-1.20327130219664</v>
       </c>
-      <c r="BY49" s="1" t="n">
-        <v>-10.2</v>
-      </c>
+      <c r="BY49" s="1"/>
       <c r="CI49" s="1" t="n">
         <v>0.395848171944444</v>
       </c>
@@ -9111,9 +9060,7 @@
       <c r="BX50" s="1" t="n">
         <v>-1.20838725161074</v>
       </c>
-      <c r="BY50" s="1" t="n">
-        <v>-8.1</v>
-      </c>
+      <c r="BY50" s="1"/>
       <c r="CI50" s="1" t="n">
         <v>0.395848171944444</v>
       </c>
@@ -9242,9 +9189,7 @@
       <c r="BX51" s="1" t="n">
         <v>-1.20838725161074</v>
       </c>
-      <c r="BY51" s="1" t="n">
-        <v>-6.6</v>
-      </c>
+      <c r="BY51" s="1"/>
       <c r="CI51" s="1" t="n">
         <v>0.395848171944444</v>
       </c>
@@ -9373,9 +9318,7 @@
       <c r="BX52" s="1" t="n">
         <v>-1.20838725161074</v>
       </c>
-      <c r="BY52" s="1" t="n">
-        <v>-5.47222402898248</v>
-      </c>
+      <c r="BY52" s="1"/>
       <c r="CI52" s="1" t="n">
         <v>0.395848171944444</v>
       </c>
@@ -9504,9 +9447,7 @@
       <c r="BX53" s="1" t="n">
         <v>-1.20838725161074</v>
       </c>
-      <c r="BY53" s="1" t="n">
-        <v>-5.47222402898248</v>
-      </c>
+      <c r="BY53" s="1"/>
       <c r="CI53" s="1" t="n">
         <v>0.395848171944444</v>
       </c>
@@ -9973,9 +9914,7 @@
       <c r="BX58" s="1" t="n">
         <v>-1.958385435718</v>
       </c>
-      <c r="BY58" s="1" t="n">
-        <v>-6.36583333333333</v>
-      </c>
+      <c r="BY58" s="1"/>
       <c r="CI58" s="1" t="n">
         <v>0.4909665</v>
       </c>
@@ -10181,9 +10120,7 @@
       <c r="BX60" s="1" t="n">
         <v>-1.1357407699305</v>
       </c>
-      <c r="BY60" s="1" t="n">
-        <v>-2.09787826798312</v>
-      </c>
+      <c r="BY60" s="1"/>
       <c r="CD60" s="1" t="n">
         <v>0.0026083910055</v>
       </c>
@@ -10303,9 +10240,7 @@
       <c r="BX61" s="1" t="n">
         <v>-2.05661166446875</v>
       </c>
-      <c r="BY61" s="1" t="n">
-        <v>-2.05661166446875</v>
-      </c>
+      <c r="BY61" s="1"/>
       <c r="CO61" s="1" t="n">
         <v>53.147628585</v>
       </c>
@@ -10398,9 +10333,7 @@
       <c r="BX62" s="1" t="n">
         <v>-2.41882088298712</v>
       </c>
-      <c r="BY62" s="1" t="n">
-        <v>-7.61870000531642</v>
-      </c>
+      <c r="BY62" s="1"/>
       <c r="CJ62" s="1" t="n">
         <v>9.13823169111911</v>
       </c>
@@ -10490,9 +10423,7 @@
       <c r="BX63" s="1" t="n">
         <v>-2.02591596798414</v>
       </c>
-      <c r="BY63" s="1" t="n">
-        <v>-10.2174514161111</v>
-      </c>
+      <c r="BY63" s="1"/>
       <c r="CD63" s="1" t="n">
         <v>0.0033092</v>
       </c>
@@ -10701,9 +10632,7 @@
       <c r="BP65" s="1" t="n">
         <v>21095.728</v>
       </c>
-      <c r="BY65" s="1" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY65" s="1"/>
       <c r="CJ65" s="1" t="n">
         <v>6.58160170933393</v>
       </c>
@@ -10817,9 +10746,7 @@
       <c r="BP66" s="1" t="n">
         <v>21095.728</v>
       </c>
-      <c r="BY66" s="1" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY66" s="1"/>
       <c r="CJ66" s="1" t="n">
         <v>6.58160170933393</v>
       </c>
@@ -10933,9 +10860,7 @@
       <c r="BP67" s="1" t="n">
         <v>21095.728</v>
       </c>
-      <c r="BY67" s="1" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY67" s="1"/>
       <c r="CJ67" s="1" t="n">
         <v>6.58160170933393</v>
       </c>
@@ -11049,9 +10974,7 @@
       <c r="BP68" s="1" t="n">
         <v>21095.728</v>
       </c>
-      <c r="BY68" s="1" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY68" s="1"/>
       <c r="CJ68" s="1" t="n">
         <v>6.58160170933393</v>
       </c>
@@ -11165,9 +11088,7 @@
       <c r="BP69" s="1" t="n">
         <v>21095.728</v>
       </c>
-      <c r="BY69" s="1" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY69" s="1"/>
       <c r="CJ69" s="1" t="n">
         <v>6.58160170933393</v>
       </c>
@@ -11281,9 +11202,7 @@
       <c r="BP70" s="1" t="n">
         <v>21095.728</v>
       </c>
-      <c r="BY70" s="1" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY70" s="1"/>
       <c r="CJ70" s="1" t="n">
         <v>6.58160170933393</v>
       </c>
@@ -11397,9 +11316,7 @@
       <c r="BP71" s="1" t="n">
         <v>21095.728</v>
       </c>
-      <c r="BY71" s="1" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY71" s="1"/>
       <c r="CJ71" s="1" t="n">
         <v>6.58160170933393</v>
       </c>
@@ -11513,9 +11430,7 @@
       <c r="BP72" s="1" t="n">
         <v>21095.728</v>
       </c>
-      <c r="BY72" s="1" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY72" s="1"/>
       <c r="CJ72" s="1" t="n">
         <v>6.58160170933393</v>
       </c>
@@ -11629,9 +11544,7 @@
       <c r="BP73" s="1" t="n">
         <v>21095.728</v>
       </c>
-      <c r="BY73" s="1" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY73" s="1"/>
       <c r="CJ73" s="1" t="n">
         <v>6.58160170933393</v>
       </c>
@@ -11745,9 +11658,7 @@
       <c r="BP74" s="1" t="n">
         <v>21095.728</v>
       </c>
-      <c r="BY74" s="1" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY74" s="1"/>
       <c r="CJ74" s="1" t="n">
         <v>6.58160170933393</v>
       </c>
@@ -11861,9 +11772,7 @@
       <c r="BP75" s="1" t="n">
         <v>21095.728</v>
       </c>
-      <c r="BY75" s="1" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY75" s="1"/>
       <c r="CJ75" s="1" t="n">
         <v>6.58160170933393</v>
       </c>
@@ -11977,9 +11886,7 @@
       <c r="BP76" s="1" t="n">
         <v>21095.728</v>
       </c>
-      <c r="BY76" s="1" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY76" s="1"/>
       <c r="CJ76" s="1" t="n">
         <v>6.58160170933393</v>
       </c>
@@ -12093,9 +12000,7 @@
       <c r="BP77" s="1" t="n">
         <v>21095.728</v>
       </c>
-      <c r="BY77" s="1" t="n">
-        <v>-3.62</v>
-      </c>
+      <c r="BY77" s="1"/>
       <c r="CJ77" s="1" t="n">
         <v>6.58160170933393</v>
       </c>
@@ -12259,9 +12164,7 @@
       <c r="BH79" s="1" t="n">
         <v>74.0114312</v>
       </c>
-      <c r="BY79" s="1" t="n">
-        <v>-3.68867119698983</v>
-      </c>
+      <c r="BY79" s="1"/>
       <c r="CI79" s="1" t="n">
         <v>0.37</v>
       </c>
@@ -12757,9 +12660,7 @@
       <c r="BP85" s="1" t="n">
         <v>23000</v>
       </c>
-      <c r="BY85" s="1" t="n">
-        <v>-2.7</v>
-      </c>
+      <c r="BY85" s="1"/>
       <c r="CI85" s="1" t="n">
         <v>0.73</v>
       </c>
@@ -12882,9 +12783,7 @@
       <c r="BP86" s="1" t="n">
         <v>23902.736</v>
       </c>
-      <c r="BY86" s="1" t="n">
-        <v>-2.46932776021472</v>
-      </c>
+      <c r="BY86" s="1"/>
       <c r="CI86" s="1" t="n">
         <v>0.335</v>
       </c>
@@ -13007,9 +12906,7 @@
       <c r="BP87" s="1" t="n">
         <v>23902.736</v>
       </c>
-      <c r="BY87" s="1" t="n">
-        <v>-2.46932776021472</v>
-      </c>
+      <c r="BY87" s="1"/>
       <c r="CI87" s="1" t="n">
         <v>0.335</v>
       </c>
@@ -13132,9 +13029,7 @@
       <c r="BP88" s="1" t="n">
         <v>23902.736</v>
       </c>
-      <c r="BY88" s="1" t="n">
-        <v>-2.46932776021472</v>
-      </c>
+      <c r="BY88" s="1"/>
       <c r="CI88" s="1" t="n">
         <v>0.335</v>
       </c>
@@ -13257,9 +13152,7 @@
       <c r="BP89" s="1" t="n">
         <v>23902.736</v>
       </c>
-      <c r="BY89" s="1" t="n">
-        <v>-2.46932776021472</v>
-      </c>
+      <c r="BY89" s="1"/>
       <c r="CI89" s="1" t="n">
         <v>0.335</v>
       </c>
@@ -13382,9 +13275,7 @@
       <c r="BP90" s="1" t="n">
         <v>24108.208</v>
       </c>
-      <c r="BY90" s="1" t="n">
-        <v>-2.46932776021472</v>
-      </c>
+      <c r="BY90" s="1"/>
       <c r="CI90" s="1" t="n">
         <v>0.335</v>
       </c>
@@ -13513,9 +13404,7 @@
       <c r="BP91" s="1" t="n">
         <v>24600</v>
       </c>
-      <c r="BY91" s="1" t="n">
-        <v>-2.46932776021472</v>
-      </c>
+      <c r="BY91" s="1"/>
       <c r="CI91" s="1" t="n">
         <v>0.335</v>
       </c>
@@ -13638,9 +13527,7 @@
       <c r="BP92" s="1" t="n">
         <v>23902.736</v>
       </c>
-      <c r="BY92" s="1" t="n">
-        <v>-2.46932776021472</v>
-      </c>
+      <c r="BY92" s="1"/>
       <c r="CI92" s="1" t="n">
         <v>0.335</v>
       </c>
@@ -13763,9 +13650,7 @@
       <c r="BP93" s="1" t="n">
         <v>23902.736</v>
       </c>
-      <c r="BY93" s="1" t="n">
-        <v>-2.46932776021472</v>
-      </c>
+      <c r="BY93" s="1"/>
       <c r="CI93" s="1" t="n">
         <v>0.335</v>
       </c>
@@ -13888,9 +13773,7 @@
       <c r="BP94" s="1" t="n">
         <v>23902.736</v>
       </c>
-      <c r="BY94" s="1" t="n">
-        <v>-2.46932776021472</v>
-      </c>
+      <c r="BY94" s="1"/>
       <c r="CI94" s="1" t="n">
         <v>0.335</v>
       </c>
@@ -14123,9 +14006,7 @@
       <c r="BX96" s="1" t="n">
         <v>-1.33720685785781</v>
       </c>
-      <c r="BY96" s="1" t="n">
-        <v>-2.21771402904092</v>
-      </c>
+      <c r="BY96" s="1"/>
       <c r="CD96" s="1" t="n">
         <v>0.0082243927878576</v>
       </c>
@@ -14224,9 +14105,7 @@
       <c r="BD97" s="1" t="n">
         <v>3.5</v>
       </c>
-      <c r="BY97" s="1" t="n">
-        <v>-5.14166666666667</v>
-      </c>
+      <c r="BY97" s="1"/>
       <c r="CJ97" s="1" t="n">
         <v>6.06693560814391</v>
       </c>
@@ -14501,9 +14380,7 @@
       <c r="BX99" s="1" t="n">
         <v>-1.38676335451574</v>
       </c>
-      <c r="BY99" s="1" t="n">
-        <v>-2.68566255365755</v>
-      </c>
+      <c r="BY99" s="1"/>
       <c r="CD99" s="1" t="n">
         <v>0.0036705561905</v>
       </c>
@@ -14629,9 +14506,7 @@
       <c r="BX100" s="1" t="n">
         <v>-0.930079603483628</v>
       </c>
-      <c r="BY100" s="1" t="n">
-        <v>-1.43634661727807</v>
-      </c>
+      <c r="BY100" s="1"/>
       <c r="CD100" s="1" t="n">
         <v>0.006402</v>
       </c>
@@ -14736,9 +14611,7 @@
       <c r="BE101" s="1" t="n">
         <v>1157.56746183641</v>
       </c>
-      <c r="BY101" s="1" t="n">
-        <v>-2.9234666666</v>
-      </c>
+      <c r="BY101" s="1"/>
       <c r="CJ101" s="1" t="n">
         <v>10.8859767648076</v>
       </c>
@@ -14867,9 +14740,7 @@
       <c r="BX102" s="1" t="n">
         <v>-1.31531059436546</v>
       </c>
-      <c r="BY102" s="1" t="n">
-        <v>-1.62204438140557</v>
-      </c>
+      <c r="BY102" s="1"/>
       <c r="CD102" s="1" t="n">
         <v>0.003936</v>
       </c>
@@ -15116,9 +14987,7 @@
       <c r="AW105" s="1" t="n">
         <v>0.623333333333333</v>
       </c>
-      <c r="BY105" s="1" t="n">
-        <v>-0.51902760863866</v>
-      </c>
+      <c r="BY105" s="1"/>
       <c r="CQ105" s="1" t="n">
         <v>29.7285714285714</v>
       </c>
@@ -15445,9 +15314,7 @@
       <c r="BX109" s="1" t="n">
         <v>-1.28614968270508</v>
       </c>
-      <c r="BY109" s="1" t="n">
-        <v>-1.28614968270508</v>
-      </c>
+      <c r="BY109" s="1"/>
       <c r="CD109" s="1" t="n">
         <v>0.000340491610333333</v>
       </c>
@@ -15897,9 +15764,7 @@
       <c r="BX113" s="1" t="n">
         <v>-1.55320224212117</v>
       </c>
-      <c r="BY113" s="1" t="n">
-        <v>-4.64356876056179</v>
-      </c>
+      <c r="BY113" s="1"/>
       <c r="CD113" s="1" t="n">
         <v>0.000574</v>
       </c>
@@ -16114,9 +15979,7 @@
       <c r="BX115" s="1" t="n">
         <v>-0.896314337350559</v>
       </c>
-      <c r="BY115" s="1" t="n">
-        <v>-2.0975838590235</v>
-      </c>
+      <c r="BY115" s="1"/>
       <c r="CD115" s="1" t="n">
         <v>0.0039355454545</v>
       </c>
@@ -16245,9 +16108,7 @@
       <c r="BX116" s="1" t="n">
         <v>-2.13795526015296</v>
       </c>
-      <c r="BY116" s="1" t="n">
-        <v>-8.77998480535573</v>
-      </c>
+      <c r="BY116" s="1"/>
       <c r="CD116" s="1" t="n">
         <v>0.00485373686057143</v>
       </c>
@@ -16415,9 +16276,7 @@
       <c r="BX117" s="1" t="n">
         <v>-1.84174178907649</v>
       </c>
-      <c r="BY117" s="1" t="n">
-        <v>-5.90193181817992</v>
-      </c>
+      <c r="BY117" s="1"/>
       <c r="CD117" s="1" t="n">
         <v>0.00485373686057143</v>
       </c>
@@ -16585,9 +16444,7 @@
       <c r="BX118" s="1" t="n">
         <v>-2.13795526015296</v>
       </c>
-      <c r="BY118" s="1" t="n">
-        <v>-8.77998480535573</v>
-      </c>
+      <c r="BY118" s="1"/>
       <c r="CD118" s="1" t="n">
         <v>0.00705467372114286</v>
       </c>
@@ -16743,9 +16600,7 @@
       <c r="BX119" s="1" t="n">
         <v>-2.13795526015296</v>
       </c>
-      <c r="BY119" s="1" t="n">
-        <v>-8.77998480535573</v>
-      </c>
+      <c r="BY119" s="1"/>
       <c r="CD119" s="1" t="n">
         <v>0.00485373686057143</v>
       </c>
@@ -16892,9 +16747,7 @@
       <c r="BX120" s="1" t="n">
         <v>-2.13795526015296</v>
       </c>
-      <c r="BY120" s="1" t="n">
-        <v>-8.77998480535573</v>
-      </c>
+      <c r="BY120" s="1"/>
       <c r="CD120" s="1" t="n">
         <v>0.00485373686057143</v>
       </c>
@@ -17073,9 +16926,7 @@
       <c r="BX122" s="1" t="n">
         <v>-1.66275518287474</v>
       </c>
-      <c r="BY122" s="1" t="n">
-        <v>-3.85264759417045</v>
-      </c>
+      <c r="BY122" s="1"/>
       <c r="CD122" s="1" t="n">
         <v>0.0043161</v>
       </c>
@@ -17195,9 +17046,7 @@
       <c r="BD123" s="1" t="n">
         <v>5.28571428571429</v>
       </c>
-      <c r="BY123" s="1" t="n">
-        <v>-1.47</v>
-      </c>
+      <c r="BY123" s="1"/>
       <c r="CI123" s="1" t="n">
         <v>0.251</v>
       </c>
@@ -17302,9 +17151,7 @@
       <c r="BX124" s="1" t="n">
         <v>-1.73430685138036</v>
       </c>
-      <c r="BY124" s="1" t="n">
-        <v>-3.45305755000849</v>
-      </c>
+      <c r="BY124" s="1"/>
       <c r="CJ124" s="1" t="n">
         <v>6.72669190920662</v>
       </c>
@@ -17525,9 +17372,7 @@
       <c r="BX126" s="1" t="n">
         <v>-1.7864895354042</v>
       </c>
-      <c r="BY126" s="1" t="n">
-        <v>-4.38857044883368</v>
-      </c>
+      <c r="BY126" s="1"/>
       <c r="CD126" s="1" t="n">
         <v>0.005412</v>
       </c>
@@ -17733,9 +17578,7 @@
       <c r="BH128" s="1" t="n">
         <v>70.5721360615144</v>
       </c>
-      <c r="BY128" s="1" t="n">
-        <v>-5.51415115901988</v>
-      </c>
+      <c r="BY128" s="1"/>
       <c r="CI128" s="1" t="n">
         <v>0.252101</v>
       </c>
@@ -17828,9 +17671,7 @@
       <c r="BX129" s="1" t="n">
         <v>-1.59617621719962</v>
       </c>
-      <c r="BY129" s="1" t="n">
-        <v>-6.01361111105555</v>
-      </c>
+      <c r="BY129" s="1"/>
       <c r="CJ129" s="1" t="n">
         <v>7.38266970513999</v>
       </c>
@@ -17947,9 +17788,7 @@
       <c r="BX130" s="1" t="n">
         <v>-1.89085490345186</v>
       </c>
-      <c r="BY130" s="1" t="n">
-        <v>-1.89085490345186</v>
-      </c>
+      <c r="BY130" s="1"/>
       <c r="CO130" s="1" t="n">
         <v>43.32796215</v>
       </c>
@@ -18137,9 +17976,7 @@
       <c r="BD132" s="1" t="n">
         <v>8.33102564102564</v>
       </c>
-      <c r="BY132" s="1" t="n">
-        <v>-0.42687168520452</v>
-      </c>
+      <c r="BY132" s="1"/>
       <c r="CQ132" s="1" t="n">
         <v>26.46248875</v>
       </c>
@@ -18214,9 +18051,7 @@
       <c r="BD133" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="BY133" s="1" t="n">
-        <v>-1.63991257249168</v>
-      </c>
+      <c r="BY133" s="1"/>
       <c r="CJ133" s="1" t="n">
         <v>1.37499069498163</v>
       </c>
@@ -18342,9 +18177,7 @@
       <c r="BX134" s="1" t="n">
         <v>-1.68212416735653</v>
       </c>
-      <c r="BY134" s="1" t="n">
-        <v>-3.73203461923843</v>
-      </c>
+      <c r="BY134" s="1"/>
       <c r="CI134" s="1" t="n">
         <v>0.669333333333333</v>
       </c>
@@ -18440,9 +18273,7 @@
       <c r="BD135" s="1" t="n">
         <v>2.14</v>
       </c>
-      <c r="BY135" s="1" t="n">
-        <v>-1.7</v>
-      </c>
+      <c r="BY135" s="1"/>
       <c r="CO135" s="1" t="n">
         <v>108.026315775</v>
       </c>
@@ -18538,9 +18369,7 @@
       <c r="BX136" s="1" t="n">
         <v>-1.20783609339541</v>
       </c>
-      <c r="BY136" s="1" t="n">
-        <v>-1.20783609339541</v>
-      </c>
+      <c r="BY136" s="1"/>
       <c r="CO136" s="1" t="n">
         <v>25.06176484175</v>
       </c>
@@ -18684,9 +18513,7 @@
       <c r="BX137" s="1" t="n">
         <v>-1.8724374855611</v>
       </c>
-      <c r="BY137" s="1" t="n">
-        <v>-7.57741023230938</v>
-      </c>
+      <c r="BY137" s="1"/>
       <c r="CI137" s="1" t="n">
         <v>0.14</v>
       </c>
@@ -19126,9 +18953,7 @@
       <c r="BX142" s="1" t="n">
         <v>-1.52864568493349</v>
       </c>
-      <c r="BY142" s="1" t="n">
-        <v>-1.52864568493349</v>
-      </c>
+      <c r="BY142" s="1"/>
       <c r="CO142" s="1" t="n">
         <v>40.008802509</v>
       </c>
@@ -19257,9 +19082,7 @@
       <c r="BX143" s="1" t="n">
         <v>-1.89699404274878</v>
       </c>
-      <c r="BY143" s="1" t="n">
-        <v>-9.07266666666667</v>
-      </c>
+      <c r="BY143" s="1"/>
       <c r="CI143" s="1" t="n">
         <v>0.40837685</v>
       </c>
@@ -19376,9 +19199,7 @@
       <c r="BX144" s="1" t="n">
         <v>-1.89699404274878</v>
       </c>
-      <c r="BY144" s="1" t="n">
-        <v>-6.48935064298051</v>
-      </c>
+      <c r="BY144" s="1"/>
       <c r="CI144" s="1" t="n">
         <v>0.40837685</v>
       </c>
@@ -19498,9 +19319,7 @@
       <c r="BP145" s="1" t="n">
         <v>19233</v>
       </c>
-      <c r="BY145" s="1" t="n">
-        <v>-2.45614658304289</v>
-      </c>
+      <c r="BY145" s="1"/>
       <c r="CJ145" s="1" t="n">
         <v>1.32678440874169</v>
       </c>
@@ -19735,9 +19554,7 @@
       <c r="BX148" s="1" t="n">
         <v>-1.36595849356506</v>
       </c>
-      <c r="BY148" s="1" t="n">
-        <v>-3.73186069494048</v>
-      </c>
+      <c r="BY148" s="1"/>
       <c r="CD148" s="1" t="n">
         <v>0.00246917186596825</v>
       </c>
@@ -19896,9 +19713,7 @@
       <c r="BX149" s="1" t="n">
         <v>-1.35669955529816</v>
       </c>
-      <c r="BY149" s="1" t="n">
-        <v>-3.36640882431438</v>
-      </c>
+      <c r="BY149" s="1"/>
       <c r="CD149" s="1" t="n">
         <v>0.00301552169505141</v>
       </c>
@@ -20075,9 +19890,7 @@
       <c r="BX150" s="1" t="n">
         <v>-1.59617621719962</v>
       </c>
-      <c r="BY150" s="1" t="n">
-        <v>-3.81685175259256</v>
-      </c>
+      <c r="BY150" s="1"/>
       <c r="CD150" s="1" t="n">
         <v>0.00203125</v>
       </c>
@@ -20272,9 +20085,7 @@
       <c r="BX151" s="1" t="n">
         <v>-1.25238441657201</v>
       </c>
-      <c r="BY151" s="1" t="n">
-        <v>-3.41824180676342</v>
-      </c>
+      <c r="BY151" s="1"/>
       <c r="CD151" s="1" t="n">
         <v>0.00301552169505141</v>
       </c>
@@ -20451,9 +20262,7 @@
       <c r="BX152" s="1" t="n">
         <v>-1.22782785938433</v>
       </c>
-      <c r="BY152" s="1" t="n">
-        <v>-3.40317337136186</v>
-      </c>
+      <c r="BY152" s="1"/>
       <c r="CD152" s="1" t="n">
         <v>0.00301552169505141</v>
       </c>
@@ -20630,9 +20439,7 @@
       <c r="BX153" s="1" t="n">
         <v>-1.35669955529816</v>
       </c>
-      <c r="BY153" s="1" t="n">
-        <v>-3.48773719601154</v>
-      </c>
+      <c r="BY153" s="1"/>
       <c r="CD153" s="1" t="n">
         <v>0.00301552169505141</v>
       </c>
@@ -20809,9 +20616,7 @@
       <c r="BX154" s="1" t="n">
         <v>-1.35669955529816</v>
       </c>
-      <c r="BY154" s="1" t="n">
-        <v>-3.36640882431438</v>
-      </c>
+      <c r="BY154" s="1"/>
       <c r="CD154" s="1" t="n">
         <v>0.0013468</v>
       </c>
@@ -21006,9 +20811,7 @@
       <c r="BX155" s="1" t="n">
         <v>-1.25084963174778</v>
       </c>
-      <c r="BY155" s="1" t="n">
-        <v>-3.18925006887492</v>
-      </c>
+      <c r="BY155" s="1"/>
       <c r="CD155" s="1" t="n">
         <v>0.00149778974727935</v>
       </c>
@@ -21185,9 +20988,7 @@
       <c r="BX156" s="1" t="n">
         <v>-1.35669955529816</v>
       </c>
-      <c r="BY156" s="1" t="n">
-        <v>-4.17995</v>
-      </c>
+      <c r="BY156" s="1"/>
       <c r="CD156" s="1" t="n">
         <v>0.00301552169505141</v>
       </c>
@@ -21325,9 +21126,7 @@
       <c r="BX157" s="1" t="n">
         <v>-1.92973611899903</v>
       </c>
-      <c r="BY157" s="1" t="n">
-        <v>-6.01895837230635</v>
-      </c>
+      <c r="BY157" s="1"/>
       <c r="CD157" s="1" t="n">
         <v>0.012229938272</v>
       </c>
@@ -21462,9 +21261,7 @@
       <c r="BX158" s="1" t="n">
         <v>-1.97373328396031</v>
       </c>
-      <c r="BY158" s="1" t="n">
-        <v>-5.09153316247266</v>
-      </c>
+      <c r="BY158" s="1"/>
       <c r="CD158" s="1" t="n">
         <v>0.012229938272</v>
       </c>
@@ -21605,9 +21402,7 @@
       <c r="BX159" s="1" t="n">
         <v>-1.84174178907649</v>
       </c>
-      <c r="BY159" s="1" t="n">
-        <v>-8.42166666666667</v>
-      </c>
+      <c r="BY159" s="1"/>
       <c r="CD159" s="1" t="n">
         <v>0.012229938272</v>
       </c>
@@ -21718,9 +21513,7 @@
       <c r="BX160" s="1" t="n">
         <v>-1.27847575858393</v>
       </c>
-      <c r="BY160" s="1" t="n">
-        <v>-1.5447656354069</v>
-      </c>
+      <c r="BY160" s="1"/>
       <c r="CD160" s="1" t="n">
         <v>0.00661</v>
       </c>
@@ -21905,9 +21698,7 @@
       <c r="BX162" s="1" t="n">
         <v>-1.18387162201837</v>
       </c>
-      <c r="BY162" s="1" t="n">
-        <v>-1.7329545635006</v>
-      </c>
+      <c r="BY162" s="1"/>
       <c r="CD162" s="1" t="n">
         <v>0.008668045751</v>
       </c>
@@ -22081,9 +21872,7 @@
       <c r="BX163" s="1" t="n">
         <v>-1.46865968262178</v>
       </c>
-      <c r="BY163" s="1" t="n">
-        <v>-5.02504749837979</v>
-      </c>
+      <c r="BY163" s="1"/>
       <c r="CD163" s="1" t="n">
         <v>0.0016277</v>
       </c>
@@ -22209,9 +21998,7 @@
       <c r="BX164" s="1" t="n">
         <v>-1.82332437118573</v>
       </c>
-      <c r="BY164" s="1" t="n">
-        <v>-3.80878306187219</v>
-      </c>
+      <c r="BY164" s="1"/>
       <c r="CE164" s="1" t="n">
         <v>0.094</v>
       </c>
@@ -22313,9 +22100,7 @@
       <c r="BD165" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="BY165" s="1" t="n">
-        <v>-3.29000430518944</v>
-      </c>
+      <c r="BY165" s="1"/>
       <c r="CJ165" s="1" t="n">
         <v>2.49504667697272</v>
       </c>
@@ -22504,9 +22289,7 @@
       <c r="BX166" s="1" t="n">
         <v>-1.69063871218533</v>
       </c>
-      <c r="BY166" s="1" t="n">
-        <v>-2.51928489304212</v>
-      </c>
+      <c r="BY166" s="1"/>
       <c r="CD166" s="1" t="n">
         <v>0.006003125635375</v>
       </c>
@@ -22698,9 +22481,7 @@
       <c r="BX167" s="1" t="n">
         <v>-2.12107262708642</v>
       </c>
-      <c r="BY167" s="1" t="n">
-        <v>-6.95092049684074</v>
-      </c>
+      <c r="BY167" s="1"/>
       <c r="CD167" s="1" t="n">
         <v>0.010455246914</v>
       </c>
@@ -22913,9 +22694,7 @@
       <c r="BX168" s="1" t="n">
         <v>-1.78955910505266</v>
       </c>
-      <c r="BY168" s="1" t="n">
-        <v>-2.002118806</v>
-      </c>
+      <c r="BY168" s="1"/>
       <c r="CD168" s="1" t="n">
         <v>0.006003125635375</v>
       </c>
@@ -23107,9 +22886,7 @@
       <c r="BX169" s="1" t="n">
         <v>-1.69063871218533</v>
       </c>
-      <c r="BY169" s="1" t="n">
-        <v>-2.51928489304212</v>
-      </c>
+      <c r="BY169" s="1"/>
       <c r="CD169" s="1" t="n">
         <v>0.006003125635375</v>
       </c>
@@ -23340,9 +23117,7 @@
       <c r="BX170" s="1" t="n">
         <v>-1.84276497895931</v>
       </c>
-      <c r="BY170" s="1" t="n">
-        <v>-2.96882517380544</v>
-      </c>
+      <c r="BY170" s="1"/>
       <c r="CD170" s="1" t="n">
         <v>0.006003125635375</v>
       </c>
@@ -23555,9 +23330,7 @@
       <c r="BX171" s="1" t="n">
         <v>-1.69063871218533</v>
       </c>
-      <c r="BY171" s="1" t="n">
-        <v>-2.51928489304212</v>
-      </c>
+      <c r="BY171" s="1"/>
       <c r="CD171" s="1" t="n">
         <v>0.006003125635375</v>
       </c>
@@ -23770,9 +23543,7 @@
       <c r="BX172" s="1" t="n">
         <v>-1.54788165473051</v>
       </c>
-      <c r="BY172" s="1" t="n">
-        <v>-3.4062103631674</v>
-      </c>
+      <c r="BY172" s="1"/>
       <c r="CD172" s="1" t="n">
         <v>0.004756</v>
       </c>
@@ -23985,9 +23756,7 @@
       <c r="BX173" s="1" t="n">
         <v>-1.93843323300301</v>
       </c>
-      <c r="BY173" s="1" t="n">
-        <v>-2.96505626698113</v>
-      </c>
+      <c r="BY173" s="1"/>
       <c r="CD173" s="1" t="n">
         <v>0.006003125635375</v>
       </c>
@@ -24200,9 +23969,7 @@
       <c r="BX174" s="1" t="n">
         <v>-1.645289331575</v>
       </c>
-      <c r="BY174" s="1" t="n">
-        <v>-2.51928489304212</v>
-      </c>
+      <c r="BY174" s="1"/>
       <c r="CD174" s="1" t="n">
         <v>0.006003125635375</v>
       </c>
@@ -24436,9 +24203,7 @@
       <c r="BX175" s="1" t="n">
         <v>-1.60504386285073</v>
       </c>
-      <c r="BY175" s="1" t="n">
-        <v>-3.25439388567045</v>
-      </c>
+      <c r="BY175" s="1"/>
       <c r="CD175" s="1" t="n">
         <v>0.0035432857145</v>
       </c>
@@ -24651,9 +24416,7 @@
       <c r="BX176" s="1" t="n">
         <v>-1.59310664755116</v>
       </c>
-      <c r="BY176" s="1" t="n">
-        <v>-2.07006700833942</v>
-      </c>
+      <c r="BY176" s="1"/>
       <c r="CD176" s="1" t="n">
         <v>0.002279699248</v>
       </c>
@@ -24866,9 +24629,7 @@
       <c r="BX177" s="1" t="n">
         <v>-1.83355627001393</v>
       </c>
-      <c r="BY177" s="1" t="n">
-        <v>-5.2</v>
-      </c>
+      <c r="BY177" s="1"/>
       <c r="CD177" s="1" t="n">
         <v>0.006003125635375</v>
       </c>
@@ -24997,9 +24758,7 @@
       <c r="BH178" s="1" t="n">
         <v>79.6812243996589</v>
       </c>
-      <c r="BY178" s="1" t="n">
-        <v>-3.14</v>
-      </c>
+      <c r="BY178" s="1"/>
       <c r="CI178" s="1" t="n">
         <v>0.549</v>
       </c>
@@ -25116,9 +24875,7 @@
       <c r="BX179" s="1" t="n">
         <v>-1.72305176266934</v>
       </c>
-      <c r="BY179" s="1" t="n">
-        <v>-5.90177663764502</v>
-      </c>
+      <c r="BY179" s="1"/>
       <c r="CI179" s="1" t="n">
         <v>1.15875</v>
       </c>
@@ -25250,9 +25007,7 @@
       <c r="BX180" s="1" t="n">
         <v>-1.01832973087688</v>
       </c>
-      <c r="BY180" s="1" t="n">
-        <v>-2.43323361321861</v>
-      </c>
+      <c r="BY180" s="1"/>
       <c r="CD180" s="1" t="n">
         <v>0.000793650794</v>
       </c>
@@ -25360,9 +25115,7 @@
       <c r="BI181" s="1" t="n">
         <v>-2.145</v>
       </c>
-      <c r="BY181" s="1" t="n">
-        <v>-1.87439324771862</v>
-      </c>
+      <c r="BY181" s="1"/>
       <c r="CI181" s="1" t="n">
         <v>4.025</v>
       </c>
@@ -25479,9 +25232,7 @@
       <c r="BQ182" s="1" t="n">
         <v>13.6597476830038</v>
       </c>
-      <c r="BY182" s="1" t="n">
-        <v>-3.56583333333333</v>
-      </c>
+      <c r="BY182" s="1"/>
       <c r="CJ182" s="1" t="n">
         <v>9.35835502321134</v>
       </c>
@@ -25589,9 +25340,7 @@
       <c r="BE183" s="1" t="n">
         <v>6238.54</v>
       </c>
-      <c r="BY183" s="1" t="n">
-        <v>-0.45901026966964</v>
-      </c>
+      <c r="BY183" s="1"/>
       <c r="CD183" s="1" t="n">
         <v>0.0119572721005</v>
       </c>
@@ -25723,9 +25472,7 @@
       <c r="BQ184" s="1" t="n">
         <v>13.9281666666667</v>
       </c>
-      <c r="BY184" s="1" t="n">
-        <v>-1.56</v>
-      </c>
+      <c r="BY184" s="1"/>
       <c r="CI184" s="1" t="n">
         <v>10.61</v>
       </c>
@@ -25854,9 +25601,7 @@
       <c r="BQ185" s="1" t="n">
         <v>6.03204840454353</v>
       </c>
-      <c r="BY185" s="1" t="n">
-        <v>-1.58222222222222</v>
-      </c>
+      <c r="BY185" s="1"/>
       <c r="CI185" s="1" t="n">
         <v>15.64</v>
       </c>
@@ -26205,9 +25950,7 @@
       <c r="BX188" s="1" t="n">
         <v>-0.905523046295941</v>
       </c>
-      <c r="BY188" s="1" t="n">
-        <v>-1.62938554562254</v>
-      </c>
+      <c r="BY188" s="1"/>
       <c r="CE188" s="1" t="n">
         <v>0.242</v>
       </c>
@@ -26333,9 +26076,7 @@
       <c r="BE189" s="1" t="n">
         <v>5900.74333333333</v>
       </c>
-      <c r="BY189" s="1" t="n">
-        <v>-2.505</v>
-      </c>
+      <c r="BY189" s="1"/>
       <c r="CI189" s="1" t="n">
         <v>0.0819</v>
       </c>
@@ -26455,9 +26196,7 @@
       <c r="BX190" s="1" t="n">
         <v>-0.724418437036753</v>
       </c>
-      <c r="BY190" s="1" t="n">
-        <v>-4.55518239017975</v>
-      </c>
+      <c r="BY190" s="1"/>
       <c r="CD190" s="1" t="n">
         <v>0.0059942</v>
       </c>
@@ -26577,9 +26316,7 @@
       <c r="BX191" s="1" t="n">
         <v>-0.626192208286007</v>
       </c>
-      <c r="BY191" s="1" t="n">
-        <v>-1.44187499998611</v>
-      </c>
+      <c r="BY191" s="1"/>
       <c r="CI191" s="1" t="n">
         <v>10.53</v>
       </c>
@@ -26876,9 +26613,7 @@
       <c r="BD195" s="1" t="n">
         <v>2.57333333333333</v>
       </c>
-      <c r="BY195" s="1" t="n">
-        <v>-1.97714285714286</v>
-      </c>
+      <c r="BY195" s="1"/>
       <c r="CI195" s="1" t="n">
         <v>0.455</v>
       </c>
@@ -27030,9 +26765,7 @@
       <c r="BQ197" s="1" t="n">
         <v>24.7531666666667</v>
       </c>
-      <c r="BY197" s="1" t="n">
-        <v>-2.6</v>
-      </c>
+      <c r="BY197" s="1"/>
       <c r="CO197" s="1" t="n">
         <v>81.52112099</v>
       </c>
@@ -27137,9 +26870,7 @@
       <c r="BX198" s="1" t="n">
         <v>-1.7158894334896</v>
       </c>
-      <c r="BY198" s="1" t="n">
-        <v>-3.93020421694614</v>
-      </c>
+      <c r="BY198" s="1"/>
       <c r="CE198" s="1" t="n">
         <v>0.6</v>
       </c>
@@ -27404,9 +27135,7 @@
       <c r="BX201" s="1" t="n">
         <v>-2.11800305743796</v>
       </c>
-      <c r="BY201" s="1" t="n">
-        <v>-2.11800305743796</v>
-      </c>
+      <c r="BY201" s="1"/>
       <c r="CI201" s="1" t="n">
         <v>2.66</v>
       </c>
@@ -27496,9 +27225,7 @@
       <c r="BX202" s="1" t="n">
         <v>-2.07222963484012</v>
       </c>
-      <c r="BY202" s="1" t="n">
-        <v>-7.52782353852381</v>
-      </c>
+      <c r="BY202" s="1"/>
       <c r="CD202" s="1" t="n">
         <v>0.002699</v>
       </c>
@@ -27656,9 +27383,7 @@
       <c r="BB204" s="1" t="n">
         <v>2747.25274725275</v>
       </c>
-      <c r="BY204" s="1" t="n">
-        <v>-8.83797370352873</v>
-      </c>
+      <c r="BY204" s="1"/>
       <c r="CI204" s="1" t="n">
         <v>0.16</v>
       </c>
@@ -27858,9 +27583,7 @@
       <c r="BX206" s="1" t="n">
         <v>-1.20327130219664</v>
       </c>
-      <c r="BY206" s="1" t="n">
-        <v>-4.23372275814373</v>
-      </c>
+      <c r="BY206" s="1"/>
       <c r="CD206" s="1" t="n">
         <v>0.0060948</v>
       </c>
@@ -28182,9 +27905,7 @@
       <c r="BD209" s="1" t="n">
         <v>7.52326888888889</v>
       </c>
-      <c r="BY209" s="1" t="n">
-        <v>-2.79753307692308</v>
-      </c>
+      <c r="BY209" s="1"/>
       <c r="CD209" s="1" t="n">
         <v>0.005986</v>
       </c>
@@ -28310,9 +28031,7 @@
       <c r="BP210" s="1" t="n">
         <v>20433.3333333333</v>
       </c>
-      <c r="BY210" s="1" t="n">
-        <v>-6.58111111105555</v>
-      </c>
+      <c r="BY210" s="1"/>
       <c r="CJ210" s="1" t="n">
         <v>6.63482408227094</v>
       </c>
@@ -28738,9 +28457,7 @@
       <c r="BX214" s="1" t="n">
         <v>-1.68903069906556</v>
       </c>
-      <c r="BY214" s="1" t="n">
-        <v>-3.59835684052655</v>
-      </c>
+      <c r="BY214" s="1"/>
       <c r="CI214" s="1" t="n">
         <v>0.81533625</v>
       </c>
@@ -28898,9 +28615,7 @@
       <c r="BX216" s="1" t="n">
         <v>-0.877896919459794</v>
       </c>
-      <c r="BY216" s="1" t="n">
-        <v>-0.877896919459794</v>
-      </c>
+      <c r="BY216" s="1"/>
       <c r="CD216" s="1" t="n">
         <v>0.0056426443465</v>
       </c>
@@ -29049,8 +28764,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/data-raw/InitialSpParamsMED.xlsx
+++ b/data-raw/InitialSpParamsMED.xlsx
@@ -97,7 +97,7 @@
     <t xml:space="preserve">cr</t>
   </si>
   <si>
-    <t xml:space="preserve">ba</t>
+    <t xml:space="preserve">BTsh</t>
   </si>
   <si>
     <t xml:space="preserve">a_fbt</t>
@@ -133,10 +133,10 @@
     <t xml:space="preserve">b_cw</t>
   </si>
   <si>
-    <t xml:space="preserve">a_ba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b_ba</t>
+    <t xml:space="preserve">a_bt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_bt</t>
   </si>
   <si>
     <t xml:space="preserve">LeafDuration</t>
@@ -2660,7 +2660,7 @@
     <tableColumn id="23" name="a_btsh"/>
     <tableColumn id="24" name="b_btsh"/>
     <tableColumn id="25" name="cr"/>
-    <tableColumn id="26" name="ba"/>
+    <tableColumn id="26" name="BTsh"/>
     <tableColumn id="27" name="a_fbt"/>
     <tableColumn id="28" name="b_fbt"/>
     <tableColumn id="29" name="c_fbt"/>
@@ -2672,8 +2672,8 @@
     <tableColumn id="35" name="c_2cr"/>
     <tableColumn id="36" name="a_cw"/>
     <tableColumn id="37" name="b_cw"/>
-    <tableColumn id="38" name="a_ba"/>
-    <tableColumn id="39" name="b_ba"/>
+    <tableColumn id="38" name="a_bt"/>
+    <tableColumn id="39" name="b_bt"/>
     <tableColumn id="40" name="LeafDuration"/>
     <tableColumn id="41" name="t0gdd"/>
     <tableColumn id="42" name="Sgdd"/>
@@ -2775,11 +2775,11 @@
   </sheetPr>
   <dimension ref="A1:EA218"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AM1" activeCellId="0" sqref="AM1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/data-raw/InitialSpParamsMED.xlsx
+++ b/data-raw/InitialSpParamsMED.xlsx
@@ -244,13 +244,13 @@
     <t xml:space="preserve">LigninPercent</t>
   </si>
   <si>
+    <t xml:space="preserve">LeafAngle</t>
+  </si>
+  <si>
     <t xml:space="preserve">gammaSWR</t>
   </si>
   <si>
     <t xml:space="preserve">alphaSWR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kDIR</t>
   </si>
   <si>
     <t xml:space="preserve">kPAR</t>
@@ -2770,9 +2770,9 @@
     <tableColumn id="72" name="SAV"/>
     <tableColumn id="73" name="HeatContent"/>
     <tableColumn id="74" name="LigninPercent"/>
-    <tableColumn id="75" name="gammaSWR"/>
-    <tableColumn id="76" name="alphaSWR"/>
-    <tableColumn id="77" name="kDIR"/>
+    <tableColumn id="75" name="LeafAngle"/>
+    <tableColumn id="76" name="gammaSWR"/>
+    <tableColumn id="77" name="alphaSWR"/>
     <tableColumn id="78" name="kPAR"/>
     <tableColumn id="79" name="g"/>
     <tableColumn id="80" name="Tmax_LAI"/>
@@ -2859,11 +2859,11 @@
   </sheetPr>
   <dimension ref="A1:EV218"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A182" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E215" activeCellId="0" sqref="E215"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BI1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BY8" activeCellId="0" sqref="BY8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.06"/>
   </cols>
@@ -3994,6 +3994,7 @@
       <c r="BV5" s="1" t="n">
         <v>9.90437038817068</v>
       </c>
+      <c r="BW5" s="1"/>
       <c r="CD5" s="1" t="n">
         <v>-1.16643646641511</v>
       </c>
@@ -4218,6 +4219,7 @@
       <c r="BV6" s="1" t="n">
         <v>9.90437038817068</v>
       </c>
+      <c r="BW6" s="1"/>
       <c r="CD6" s="1" t="n">
         <v>-1.99522027149953</v>
       </c>
@@ -4442,6 +4444,7 @@
       <c r="BV7" s="1" t="n">
         <v>9.90437038817068</v>
       </c>
+      <c r="BW7" s="1"/>
       <c r="CD7" s="1" t="n">
         <v>-1.1727275438286</v>
       </c>
@@ -4666,6 +4669,7 @@
       <c r="BV8" s="1" t="n">
         <v>9.90437038817068</v>
       </c>
+      <c r="BW8" s="1"/>
       <c r="CD8" s="1" t="n">
         <v>-1.1727275438286</v>
       </c>
@@ -4890,6 +4894,7 @@
       <c r="BV9" s="1" t="n">
         <v>9.90437038817068</v>
       </c>
+      <c r="BW9" s="1"/>
       <c r="CD9" s="1" t="n">
         <v>-0.982262287507461</v>
       </c>
@@ -5114,6 +5119,7 @@
       <c r="BV10" s="1" t="n">
         <v>9.90437038817068</v>
       </c>
+      <c r="BW10" s="1"/>
       <c r="CD10" s="1" t="n">
         <v>-0.811202046834753</v>
       </c>
@@ -5472,6 +5478,7 @@
       <c r="BV13" s="1" t="n">
         <v>10.9800175371298</v>
       </c>
+      <c r="BW13" s="1"/>
       <c r="CD13" s="1" t="n">
         <v>-0.994540566101305</v>
       </c>
@@ -6598,6 +6605,7 @@
       <c r="BV23" s="1" t="n">
         <v>20.8802222222222</v>
       </c>
+      <c r="BW23" s="1"/>
       <c r="CD23" s="1" t="n">
         <v>-1.54706310282425</v>
       </c>
@@ -7224,6 +7232,7 @@
       <c r="BV28" s="1" t="n">
         <v>12.8908159494486</v>
       </c>
+      <c r="BW28" s="1"/>
       <c r="CD28" s="1" t="n">
         <v>-0.917801324889784</v>
       </c>
@@ -15782,6 +15791,7 @@
       <c r="BV99" s="1" t="n">
         <v>12.5692209622521</v>
       </c>
+      <c r="BW99" s="1"/>
       <c r="CD99" s="1" t="n">
         <v>-1.38676335451574</v>
       </c>
@@ -16173,6 +16183,7 @@
       <c r="BV102" s="1" t="n">
         <v>19.3466201610952</v>
       </c>
+      <c r="BW102" s="1"/>
       <c r="CD102" s="1" t="n">
         <v>-1.31531059436546</v>
       </c>
@@ -17624,6 +17635,7 @@
       <c r="BV116" s="1" t="n">
         <v>14.5513009704027</v>
       </c>
+      <c r="BW116" s="1"/>
       <c r="CD116" s="1" t="n">
         <v>-2.13795526015296</v>
       </c>
@@ -17803,6 +17815,7 @@
       <c r="BV117" s="1" t="n">
         <v>14.5513009704027</v>
       </c>
+      <c r="BW117" s="1"/>
       <c r="CD117" s="1" t="n">
         <v>-1.84174178907649</v>
       </c>
@@ -17982,6 +17995,7 @@
       <c r="BV118" s="1" t="n">
         <v>14.5513009704027</v>
       </c>
+      <c r="BW118" s="1"/>
       <c r="CD118" s="1" t="n">
         <v>-2.13795526015296</v>
       </c>
@@ -18161,6 +18175,7 @@
       <c r="BV119" s="1" t="n">
         <v>14.5513009704027</v>
       </c>
+      <c r="BW119" s="1"/>
       <c r="CD119" s="1" t="n">
         <v>-2.13795526015296</v>
       </c>
@@ -18325,6 +18340,7 @@
       <c r="BV120" s="1" t="n">
         <v>14.5513009704027</v>
       </c>
+      <c r="BW120" s="1"/>
       <c r="CD120" s="1" t="n">
         <v>-2.13795526015296</v>
       </c>
@@ -19585,6 +19601,7 @@
       <c r="BV131" s="1" t="n">
         <v>12.5972997569246</v>
       </c>
+      <c r="BW131" s="1"/>
       <c r="DE131" s="1" t="n">
         <v>102.6519242</v>
       </c>
@@ -21564,6 +21581,7 @@
       <c r="BV149" s="1" t="n">
         <v>24.5247287771864</v>
       </c>
+      <c r="BW149" s="1"/>
       <c r="CD149" s="1" t="n">
         <v>-1.35669955529816</v>
       </c>
@@ -21770,6 +21788,7 @@
       <c r="BV150" s="1" t="n">
         <v>24.5247287771864</v>
       </c>
+      <c r="BW150" s="1"/>
       <c r="CD150" s="1" t="n">
         <v>-1.59617621719962</v>
       </c>
@@ -21994,6 +22013,7 @@
       <c r="BV151" s="1" t="n">
         <v>24.5247287771864</v>
       </c>
+      <c r="BW151" s="1"/>
       <c r="CD151" s="1" t="n">
         <v>-1.25238441657201</v>
       </c>
@@ -22200,6 +22220,7 @@
       <c r="BV152" s="1" t="n">
         <v>24.5247287771864</v>
       </c>
+      <c r="BW152" s="1"/>
       <c r="CD152" s="1" t="n">
         <v>-1.22782785938433</v>
       </c>
@@ -22406,6 +22427,7 @@
       <c r="BV153" s="1" t="n">
         <v>24.5247287771864</v>
       </c>
+      <c r="BW153" s="1"/>
       <c r="CD153" s="1" t="n">
         <v>-1.35669955529816</v>
       </c>
@@ -22612,6 +22634,7 @@
       <c r="BV154" s="1" t="n">
         <v>24.5247287771864</v>
       </c>
+      <c r="BW154" s="1"/>
       <c r="CD154" s="1" t="n">
         <v>-1.35669955529816</v>
       </c>
@@ -22836,6 +22859,7 @@
       <c r="BV155" s="1" t="n">
         <v>16.6466242210395</v>
       </c>
+      <c r="BW155" s="1"/>
       <c r="CD155" s="1" t="n">
         <v>-1.25084963174778</v>
       </c>
@@ -23042,6 +23066,7 @@
       <c r="BV156" s="1" t="n">
         <v>24.5247287771864</v>
       </c>
+      <c r="BW156" s="1"/>
       <c r="CD156" s="1" t="n">
         <v>-1.35669955529816</v>
       </c>
@@ -23827,6 +23852,7 @@
       <c r="BV162" s="1" t="n">
         <v>19.2945547544782</v>
       </c>
+      <c r="BW162" s="1"/>
       <c r="CD162" s="1" t="n">
         <v>-1.18387162201837</v>
       </c>
@@ -24022,6 +24048,7 @@
       <c r="BV163" s="1" t="n">
         <v>12.7720076082908</v>
       </c>
+      <c r="BW163" s="1"/>
       <c r="CD163" s="1" t="n">
         <v>-1.46865968262178</v>
       </c>
@@ -24479,6 +24506,7 @@
       <c r="BV166" s="1" t="n">
         <v>28.9749166666667</v>
       </c>
+      <c r="BW166" s="1"/>
       <c r="CD166" s="1" t="n">
         <v>-1.69063871218533</v>
       </c>
@@ -24697,6 +24725,7 @@
       <c r="BV167" s="1" t="n">
         <v>28.9749166666667</v>
       </c>
+      <c r="BW167" s="1"/>
       <c r="CD167" s="1" t="n">
         <v>-2.12107262708642</v>
       </c>
@@ -24933,6 +24962,7 @@
       <c r="BV168" s="1" t="n">
         <v>28.9749166666667</v>
       </c>
+      <c r="BW168" s="1"/>
       <c r="CD168" s="1" t="n">
         <v>-1.78955910505266</v>
       </c>
@@ -25151,6 +25181,7 @@
       <c r="BV169" s="1" t="n">
         <v>28.9749166666667</v>
       </c>
+      <c r="BW169" s="1"/>
       <c r="CD169" s="1" t="n">
         <v>-1.69063871218533</v>
       </c>
@@ -25405,6 +25436,7 @@
       <c r="BV170" s="1" t="n">
         <v>28.9749166666667</v>
       </c>
+      <c r="BW170" s="1"/>
       <c r="CD170" s="1" t="n">
         <v>-1.84276497895931</v>
       </c>
@@ -25650,6 +25682,7 @@
       <c r="BV171" s="1" t="n">
         <v>28.9749166666667</v>
       </c>
+      <c r="BW171" s="1"/>
       <c r="CD171" s="1" t="n">
         <v>-1.69063871218533</v>
       </c>
@@ -25886,6 +25919,7 @@
       <c r="BV172" s="1" t="n">
         <v>28.9749166666667</v>
       </c>
+      <c r="BW172" s="1"/>
       <c r="CD172" s="1" t="n">
         <v>-1.54788165473051</v>
       </c>
@@ -26122,6 +26156,7 @@
       <c r="BV173" s="1" t="n">
         <v>28.9749166666667</v>
       </c>
+      <c r="BW173" s="1"/>
       <c r="CD173" s="1" t="n">
         <v>-1.93843323300301</v>
       </c>
@@ -26358,6 +26393,7 @@
       <c r="BV174" s="1" t="n">
         <v>28.9749166666667</v>
       </c>
+      <c r="BW174" s="1"/>
       <c r="CD174" s="1" t="n">
         <v>-1.645289331575</v>
       </c>
@@ -26612,6 +26648,7 @@
       <c r="BV175" s="1" t="n">
         <v>28.9749166666667</v>
       </c>
+      <c r="BW175" s="1"/>
       <c r="CD175" s="1" t="n">
         <v>-1.60504386285073</v>
       </c>
@@ -26848,6 +26885,7 @@
       <c r="BV176" s="1" t="n">
         <v>28.9749166666667</v>
       </c>
+      <c r="BW176" s="1"/>
       <c r="CD176" s="1" t="n">
         <v>-1.59310664755116</v>
       </c>
@@ -27084,6 +27122,7 @@
       <c r="BV177" s="1" t="n">
         <v>28.9749166666667</v>
       </c>
+      <c r="BW177" s="1"/>
       <c r="CD177" s="1" t="n">
         <v>-1.83355627001393</v>
       </c>
@@ -27773,6 +27812,7 @@
       <c r="BV182" s="1" t="n">
         <v>13.6597476830038</v>
       </c>
+      <c r="BW182" s="1"/>
       <c r="CV182" s="1" t="n">
         <v>-2.983604651</v>
       </c>
@@ -28021,6 +28061,7 @@
       <c r="BV184" s="1" t="n">
         <v>13.9281666666667</v>
       </c>
+      <c r="BW184" s="1"/>
       <c r="CU184" s="1" t="n">
         <v>10.61</v>
       </c>
@@ -28156,6 +28197,7 @@
       <c r="BV185" s="1" t="n">
         <v>6.03204840454353</v>
       </c>
+      <c r="BW185" s="1"/>
       <c r="CU185" s="1" t="n">
         <v>15.64</v>
       </c>
@@ -28287,6 +28329,7 @@
       <c r="BV186" s="1" t="n">
         <v>14.2506796171665</v>
       </c>
+      <c r="BW186" s="1"/>
       <c r="CJ186" s="1" t="n">
         <v>0.01392369813</v>
       </c>
@@ -28518,6 +28561,7 @@
       <c r="BV188" s="1" t="n">
         <v>11.9555216849679</v>
       </c>
+      <c r="BW188" s="1"/>
       <c r="CD188" s="1" t="n">
         <v>-0.905523046295941</v>
       </c>
@@ -29407,6 +29451,7 @@
       <c r="BV197" s="1" t="n">
         <v>24.7531666666667</v>
       </c>
+      <c r="BW197" s="1"/>
       <c r="CW197" s="1" t="n">
         <v>-2.6</v>
       </c>
@@ -29515,6 +29560,7 @@
       <c r="BV198" s="1" t="n">
         <v>10.7736375254878</v>
       </c>
+      <c r="BW198" s="1"/>
       <c r="CD198" s="1" t="n">
         <v>-1.7158894334896</v>
       </c>
@@ -31016,6 +31062,7 @@
       <c r="BV212" s="1" t="n">
         <v>11.605336076059</v>
       </c>
+      <c r="BW212" s="1"/>
       <c r="CJ212" s="1" t="n">
         <v>0.008241</v>
       </c>
@@ -31226,6 +31273,7 @@
       <c r="BV214" s="1" t="n">
         <v>15.6601666666667</v>
       </c>
+      <c r="BW214" s="1"/>
       <c r="CD214" s="1" t="n">
         <v>-1.68903069906556</v>
       </c>
